--- a/data/GCMSMS Validation Data.xlsx
+++ b/data/GCMSMS Validation Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="41280" windowHeight="24560" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="41280" windowHeight="24555" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Apple" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="QC % Recovery" sheetId="23" r:id="rId8"/>
     <sheet name="LOR_LOD Data" sheetId="22" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2115,27 +2115,27 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K12"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
-    <col min="3" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="17" width="7.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="36" customWidth="1"/>
-    <col min="19" max="19" width="7.83203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="2" customWidth="1"/>
-    <col min="21" max="26" width="7.33203125" style="2" customWidth="1"/>
-    <col min="27" max="30" width="8.83203125" style="3"/>
-    <col min="31" max="31" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="3" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="2" customWidth="1"/>
+    <col min="12" max="17" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="36" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="2" customWidth="1"/>
+    <col min="21" max="26" width="7.28515625" style="2" customWidth="1"/>
+    <col min="27" max="30" width="8.85546875" style="3"/>
+    <col min="31" max="31" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19" thickBot="1">
+    <row r="1" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="91" t="s">
         <v>119</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18">
+    <row r="2" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>2</v>
       </c>
@@ -2157,8 +2157,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" thickBot="1"/>
-    <row r="4" spans="1:38" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="157" t="s">
         <v>1</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="AB4" s="158"/>
       <c r="AC4" s="159"/>
     </row>
-    <row r="5" spans="1:38" s="90" customFormat="1" ht="29" thickBot="1">
+    <row r="5" spans="1:38" s="90" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="AK6" s="57"/>
       <c r="AL6" s="57"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="AK7" s="57"/>
       <c r="AL7" s="57"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="AK8" s="57"/>
       <c r="AL8" s="57"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="AK9" s="57"/>
       <c r="AL9" s="57"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="AK10" s="57"/>
       <c r="AL10" s="57"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>133</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="AK11" s="57"/>
       <c r="AL11" s="57"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="AK12" s="57"/>
       <c r="AL12" s="57"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="AK13" s="57"/>
       <c r="AL13" s="57"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="AK14" s="57"/>
       <c r="AL14" s="57"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="AK15" s="57"/>
       <c r="AL15" s="57"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="AK16" s="57"/>
       <c r="AL16" s="57"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="AK17" s="57"/>
       <c r="AL17" s="57"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="AK18" s="57"/>
       <c r="AL18" s="57"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="AK19" s="57"/>
       <c r="AL19" s="57"/>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="AK20" s="57"/>
       <c r="AL20" s="57"/>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="AK21" s="57"/>
       <c r="AL21" s="57"/>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="AK22" s="57"/>
       <c r="AL22" s="57"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="AK23" s="57"/>
       <c r="AL23" s="57"/>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="AK24" s="57"/>
       <c r="AL24" s="57"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="AK25" s="57"/>
       <c r="AL25" s="57"/>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="AK26" s="57"/>
       <c r="AL26" s="57"/>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="AK27" s="57"/>
       <c r="AL27" s="57"/>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="AK28" s="57"/>
       <c r="AL28" s="57"/>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="AK29" s="57"/>
       <c r="AL29" s="57"/>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="AK30" s="57"/>
       <c r="AL30" s="57"/>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="AK31" s="57"/>
       <c r="AL31" s="57"/>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="AK32" s="57"/>
       <c r="AL32" s="57"/>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="AK33" s="57"/>
       <c r="AL33" s="57"/>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="AK34" s="57"/>
       <c r="AL34" s="57"/>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="AK35" s="57"/>
       <c r="AL35" s="57"/>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="AK36" s="57"/>
       <c r="AL36" s="57"/>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="AK37" s="57"/>
       <c r="AL37" s="57"/>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="AK38" s="57"/>
       <c r="AL38" s="57"/>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="57"/>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="AK40" s="57"/>
       <c r="AL40" s="57"/>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -5954,7 +5954,7 @@
       <c r="AK41" s="57"/>
       <c r="AL41" s="57"/>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="AK42" s="57"/>
       <c r="AL42" s="57"/>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="AK43" s="57"/>
       <c r="AL43" s="57"/>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="AK44" s="57"/>
       <c r="AL44" s="57"/>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="AK45" s="57"/>
       <c r="AL45" s="57"/>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="AK46" s="57"/>
       <c r="AL46" s="57"/>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="57"/>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="AK48" s="57"/>
       <c r="AL48" s="57"/>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="AK49" s="57"/>
       <c r="AL49" s="57"/>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="AK50" s="57"/>
       <c r="AL50" s="57"/>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="AK51" s="57"/>
       <c r="AL51" s="57"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="AK52" s="57"/>
       <c r="AL52" s="57"/>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="AK53" s="57"/>
       <c r="AL53" s="57"/>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="AK54" s="57"/>
       <c r="AL54" s="57"/>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="AK55" s="57"/>
       <c r="AL55" s="57"/>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="AK56" s="57"/>
       <c r="AL56" s="57"/>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="AK57" s="57"/>
       <c r="AL57" s="57"/>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -7688,7 +7688,7 @@
       <c r="AK58" s="57"/>
       <c r="AL58" s="57"/>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="AK59" s="57"/>
       <c r="AL59" s="57"/>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="AK60" s="57"/>
       <c r="AL60" s="57"/>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="AK61" s="57"/>
       <c r="AL61" s="57"/>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="AK62" s="57"/>
       <c r="AL62" s="57"/>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="AK63" s="57"/>
       <c r="AL63" s="57"/>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="AK64" s="57"/>
       <c r="AL64" s="57"/>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="AK65" s="57"/>
       <c r="AL65" s="57"/>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="AK66" s="57"/>
       <c r="AL66" s="57"/>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="AK67" s="57"/>
       <c r="AL67" s="57"/>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="AK68" s="57"/>
       <c r="AL68" s="57"/>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="AK69" s="57"/>
       <c r="AL69" s="57"/>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -8912,7 +8912,7 @@
       <c r="AK70" s="57"/>
       <c r="AL70" s="57"/>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="AK71" s="57"/>
       <c r="AL71" s="57"/>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="AK72" s="57"/>
       <c r="AL72" s="57"/>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="AK73" s="57"/>
       <c r="AL73" s="57"/>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="AK74" s="57"/>
       <c r="AL74" s="57"/>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -9422,7 +9422,7 @@
       <c r="AK75" s="57"/>
       <c r="AL75" s="57"/>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -9524,7 +9524,7 @@
       <c r="AK76" s="57"/>
       <c r="AL76" s="57"/>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="AK77" s="57"/>
       <c r="AL77" s="57"/>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="AK78" s="57"/>
       <c r="AL78" s="57"/>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="AK79" s="57"/>
       <c r="AL79" s="57"/>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="AK80" s="57"/>
       <c r="AL80" s="57"/>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -10028,7 +10028,7 @@
       <c r="AK81" s="57"/>
       <c r="AL81" s="57"/>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="AK82" s="57"/>
       <c r="AL82" s="57"/>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -10232,7 +10232,7 @@
       <c r="AK83" s="57"/>
       <c r="AL83" s="57"/>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -10334,7 +10334,7 @@
       <c r="AK84" s="57"/>
       <c r="AL84" s="57"/>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="AK85" s="57"/>
       <c r="AL85" s="57"/>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -10538,7 +10538,7 @@
       <c r="AK86" s="57"/>
       <c r="AL86" s="57"/>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="AK87" s="57"/>
       <c r="AL87" s="57"/>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -10742,7 +10742,7 @@
       <c r="AK88" s="57"/>
       <c r="AL88" s="57"/>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -10844,7 +10844,7 @@
       <c r="AK89" s="57"/>
       <c r="AL89" s="57"/>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -10946,7 +10946,7 @@
       <c r="AK90" s="57"/>
       <c r="AL90" s="57"/>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -11048,7 +11048,7 @@
       <c r="AK91" s="57"/>
       <c r="AL91" s="57"/>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="AK92" s="57"/>
       <c r="AL92" s="57"/>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="AK93" s="57"/>
       <c r="AL93" s="57"/>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -11354,7 +11354,7 @@
       <c r="AK94" s="57"/>
       <c r="AL94" s="57"/>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="AK95" s="57"/>
       <c r="AL95" s="57"/>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="AK96" s="57"/>
       <c r="AL96" s="57"/>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="AK97" s="57"/>
       <c r="AL97" s="57"/>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="AK98" s="57"/>
       <c r="AL98" s="57"/>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="AK99" s="57"/>
       <c r="AL99" s="57"/>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -11966,7 +11966,7 @@
       <c r="AK100" s="57"/>
       <c r="AL100" s="57"/>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="AK101" s="57"/>
       <c r="AL101" s="57"/>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -12170,7 +12170,7 @@
       <c r="AK102" s="57"/>
       <c r="AL102" s="57"/>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -12272,7 +12272,7 @@
       <c r="AK103" s="57"/>
       <c r="AL103" s="57"/>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -12374,7 +12374,7 @@
       <c r="AK104" s="57"/>
       <c r="AL104" s="57"/>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -12476,7 +12476,7 @@
       <c r="AK105" s="57"/>
       <c r="AL105" s="57"/>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="AK106" s="57"/>
       <c r="AL106" s="57"/>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -12680,7 +12680,7 @@
       <c r="AK107" s="57"/>
       <c r="AL107" s="57"/>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -12782,7 +12782,7 @@
       <c r="AK108" s="57"/>
       <c r="AL108" s="57"/>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -12884,7 +12884,7 @@
       <c r="AK109" s="57"/>
       <c r="AL109" s="57"/>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -12986,7 +12986,7 @@
       <c r="AK110" s="57"/>
       <c r="AL110" s="57"/>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="AK111" s="57"/>
       <c r="AL111" s="57"/>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="AK112" s="57"/>
       <c r="AL112" s="57"/>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -13292,7 +13292,7 @@
       <c r="AK113" s="57"/>
       <c r="AL113" s="57"/>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="AK114" s="57"/>
       <c r="AL114" s="57"/>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -13496,7 +13496,7 @@
       <c r="AK115" s="57"/>
       <c r="AL115" s="57"/>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -13598,7 +13598,7 @@
       <c r="AK116" s="57"/>
       <c r="AL116" s="57"/>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="AK117" s="57"/>
       <c r="AL117" s="57"/>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="AK118" s="57"/>
       <c r="AL118" s="57"/>
     </row>
-    <row r="119" spans="1:38" ht="15" thickBot="1">
+    <row r="119" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -13930,24 +13930,24 @@
   <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="40640" topLeftCell="AD1"/>
+      <pane xSplit="40635" topLeftCell="AD1"/>
       <selection activeCell="B1" sqref="B1:B1048576"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="20" customWidth="1"/>
-    <col min="11" max="17" width="7.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="20" customWidth="1"/>
-    <col min="19" max="25" width="7.33203125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="20" customWidth="1"/>
+    <col min="11" max="17" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="20" customWidth="1"/>
+    <col min="19" max="25" width="7.28515625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13969,8 +13969,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1"/>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="157" t="s">
         <v>1</v>
       </c>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="AC4" s="161"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" ht="17" thickBot="1">
+    <row r="5" spans="1:29" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="AB6" s="42"/>
       <c r="AC6" s="44"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="AB7" s="42"/>
       <c r="AC7" s="44"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -14199,7 +14199,7 @@
       <c r="AB8" s="42"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="AB9" s="42"/>
       <c r="AC9" s="44"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -14265,7 +14265,7 @@
       <c r="AB10" s="42"/>
       <c r="AC10" s="44"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -14298,7 +14298,7 @@
       <c r="AB11" s="42"/>
       <c r="AC11" s="44"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -14331,7 +14331,7 @@
       <c r="AB12" s="42"/>
       <c r="AC12" s="44"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="AB13" s="42"/>
       <c r="AC13" s="44"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -14397,7 +14397,7 @@
       <c r="AB14" s="42"/>
       <c r="AC14" s="44"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -14430,7 +14430,7 @@
       <c r="AB15" s="42"/>
       <c r="AC15" s="44"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -14463,7 +14463,7 @@
       <c r="AB16" s="42"/>
       <c r="AC16" s="44"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -14496,7 +14496,7 @@
       <c r="AB17" s="42"/>
       <c r="AC17" s="44"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -14529,7 +14529,7 @@
       <c r="AB18" s="42"/>
       <c r="AC18" s="44"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -14562,7 +14562,7 @@
       <c r="AB19" s="42"/>
       <c r="AC19" s="44"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -14595,7 +14595,7 @@
       <c r="AB20" s="42"/>
       <c r="AC20" s="44"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -14628,7 +14628,7 @@
       <c r="AB21" s="42"/>
       <c r="AC21" s="44"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="AB22" s="42"/>
       <c r="AC22" s="44"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="AB23" s="42"/>
       <c r="AC23" s="44"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -14727,7 +14727,7 @@
       <c r="AB24" s="42"/>
       <c r="AC24" s="44"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -14760,7 +14760,7 @@
       <c r="AB25" s="42"/>
       <c r="AC25" s="44"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -14793,7 +14793,7 @@
       <c r="AB26" s="42"/>
       <c r="AC26" s="44"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
@@ -14826,7 +14826,7 @@
       <c r="AB27" s="42"/>
       <c r="AC27" s="44"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -14859,7 +14859,7 @@
       <c r="AB28" s="42"/>
       <c r="AC28" s="44"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="AB29" s="42"/>
       <c r="AC29" s="44"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="AB30" s="42"/>
       <c r="AC30" s="44"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -14958,7 +14958,7 @@
       <c r="AB31" s="42"/>
       <c r="AC31" s="44"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -14991,7 +14991,7 @@
       <c r="AB32" s="42"/>
       <c r="AC32" s="44"/>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="AB33" s="42"/>
       <c r="AC33" s="44"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -15057,7 +15057,7 @@
       <c r="AB34" s="42"/>
       <c r="AC34" s="44"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -15090,7 +15090,7 @@
       <c r="AB35" s="42"/>
       <c r="AC35" s="44"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="AB36" s="42"/>
       <c r="AC36" s="44"/>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="AB37" s="42"/>
       <c r="AC37" s="44"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -15189,7 +15189,7 @@
       <c r="AB38" s="42"/>
       <c r="AC38" s="44"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -15222,7 +15222,7 @@
       <c r="AB39" s="42"/>
       <c r="AC39" s="44"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -15255,7 +15255,7 @@
       <c r="AB40" s="42"/>
       <c r="AC40" s="44"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -15288,7 +15288,7 @@
       <c r="AB41" s="42"/>
       <c r="AC41" s="44"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -15321,7 +15321,7 @@
       <c r="AB42" s="42"/>
       <c r="AC42" s="44"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -15354,7 +15354,7 @@
       <c r="AB43" s="42"/>
       <c r="AC43" s="44"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -15387,7 +15387,7 @@
       <c r="AB44" s="42"/>
       <c r="AC44" s="44"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="AB45" s="42"/>
       <c r="AC45" s="44"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -15453,7 +15453,7 @@
       <c r="AB46" s="42"/>
       <c r="AC46" s="44"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="AB47" s="42"/>
       <c r="AC47" s="44"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="AB48" s="42"/>
       <c r="AC48" s="44"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -15552,7 +15552,7 @@
       <c r="AB49" s="42"/>
       <c r="AC49" s="44"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -15585,7 +15585,7 @@
       <c r="AB50" s="42"/>
       <c r="AC50" s="44"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -15618,7 +15618,7 @@
       <c r="AB51" s="42"/>
       <c r="AC51" s="44"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -15651,7 +15651,7 @@
       <c r="AB52" s="42"/>
       <c r="AC52" s="44"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -15684,7 +15684,7 @@
       <c r="AB53" s="42"/>
       <c r="AC53" s="44"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -15717,7 +15717,7 @@
       <c r="AB54" s="42"/>
       <c r="AC54" s="44"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -15750,7 +15750,7 @@
       <c r="AB55" s="42"/>
       <c r="AC55" s="44"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -15783,7 +15783,7 @@
       <c r="AB56" s="42"/>
       <c r="AC56" s="44"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -15816,7 +15816,7 @@
       <c r="AB57" s="42"/>
       <c r="AC57" s="44"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -15849,7 +15849,7 @@
       <c r="AB58" s="42"/>
       <c r="AC58" s="44"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -15882,7 +15882,7 @@
       <c r="AB59" s="42"/>
       <c r="AC59" s="44"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="AB60" s="42"/>
       <c r="AC60" s="44"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="AB61" s="42"/>
       <c r="AC61" s="44"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -15981,7 +15981,7 @@
       <c r="AB62" s="42"/>
       <c r="AC62" s="44"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -16014,7 +16014,7 @@
       <c r="AB63" s="42"/>
       <c r="AC63" s="44"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -16047,7 +16047,7 @@
       <c r="AB64" s="42"/>
       <c r="AC64" s="44"/>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -16080,7 +16080,7 @@
       <c r="AB65" s="42"/>
       <c r="AC65" s="44"/>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -16113,7 +16113,7 @@
       <c r="AB66" s="42"/>
       <c r="AC66" s="44"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -16146,7 +16146,7 @@
       <c r="AB67" s="42"/>
       <c r="AC67" s="44"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -16179,7 +16179,7 @@
       <c r="AB68" s="42"/>
       <c r="AC68" s="44"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -16212,7 +16212,7 @@
       <c r="AB69" s="42"/>
       <c r="AC69" s="44"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -16245,7 +16245,7 @@
       <c r="AB70" s="42"/>
       <c r="AC70" s="44"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -16278,7 +16278,7 @@
       <c r="AB71" s="42"/>
       <c r="AC71" s="44"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -16311,7 +16311,7 @@
       <c r="AB72" s="42"/>
       <c r="AC72" s="44"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -16344,7 +16344,7 @@
       <c r="AB73" s="42"/>
       <c r="AC73" s="44"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -16377,7 +16377,7 @@
       <c r="AB74" s="42"/>
       <c r="AC74" s="44"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -16410,7 +16410,7 @@
       <c r="AB75" s="42"/>
       <c r="AC75" s="44"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -16443,7 +16443,7 @@
       <c r="AB76" s="42"/>
       <c r="AC76" s="44"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -16476,7 +16476,7 @@
       <c r="AB77" s="42"/>
       <c r="AC77" s="44"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -16509,7 +16509,7 @@
       <c r="AB78" s="42"/>
       <c r="AC78" s="44"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -16542,7 +16542,7 @@
       <c r="AB79" s="42"/>
       <c r="AC79" s="44"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -16575,7 +16575,7 @@
       <c r="AB80" s="42"/>
       <c r="AC80" s="44"/>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -16608,7 +16608,7 @@
       <c r="AB81" s="42"/>
       <c r="AC81" s="44"/>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -16641,7 +16641,7 @@
       <c r="AB82" s="42"/>
       <c r="AC82" s="44"/>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -16674,7 +16674,7 @@
       <c r="AB83" s="42"/>
       <c r="AC83" s="44"/>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -16707,7 +16707,7 @@
       <c r="AB84" s="42"/>
       <c r="AC84" s="44"/>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -16740,7 +16740,7 @@
       <c r="AB85" s="42"/>
       <c r="AC85" s="44"/>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -16773,7 +16773,7 @@
       <c r="AB86" s="42"/>
       <c r="AC86" s="44"/>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -16806,7 +16806,7 @@
       <c r="AB87" s="42"/>
       <c r="AC87" s="44"/>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -16839,7 +16839,7 @@
       <c r="AB88" s="42"/>
       <c r="AC88" s="44"/>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -16872,7 +16872,7 @@
       <c r="AB89" s="42"/>
       <c r="AC89" s="44"/>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="AB90" s="42"/>
       <c r="AC90" s="44"/>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="AB91" s="42"/>
       <c r="AC91" s="44"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -16971,7 +16971,7 @@
       <c r="AB92" s="42"/>
       <c r="AC92" s="44"/>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -17004,7 +17004,7 @@
       <c r="AB93" s="42"/>
       <c r="AC93" s="44"/>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -17037,7 +17037,7 @@
       <c r="AB94" s="42"/>
       <c r="AC94" s="44"/>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -17070,7 +17070,7 @@
       <c r="AB95" s="42"/>
       <c r="AC95" s="44"/>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -17103,7 +17103,7 @@
       <c r="AB96" s="42"/>
       <c r="AC96" s="44"/>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -17136,7 +17136,7 @@
       <c r="AB97" s="42"/>
       <c r="AC97" s="44"/>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -17169,7 +17169,7 @@
       <c r="AB98" s="42"/>
       <c r="AC98" s="44"/>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -17202,7 +17202,7 @@
       <c r="AB99" s="42"/>
       <c r="AC99" s="44"/>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -17235,7 +17235,7 @@
       <c r="AB100" s="42"/>
       <c r="AC100" s="44"/>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -17268,7 +17268,7 @@
       <c r="AB101" s="42"/>
       <c r="AC101" s="44"/>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -17301,7 +17301,7 @@
       <c r="AB102" s="42"/>
       <c r="AC102" s="44"/>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -17334,7 +17334,7 @@
       <c r="AB103" s="42"/>
       <c r="AC103" s="44"/>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -17367,7 +17367,7 @@
       <c r="AB104" s="42"/>
       <c r="AC104" s="44"/>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -17400,7 +17400,7 @@
       <c r="AB105" s="42"/>
       <c r="AC105" s="44"/>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -17433,7 +17433,7 @@
       <c r="AB106" s="42"/>
       <c r="AC106" s="44"/>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -17466,7 +17466,7 @@
       <c r="AB107" s="42"/>
       <c r="AC107" s="44"/>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -17499,7 +17499,7 @@
       <c r="AB108" s="42"/>
       <c r="AC108" s="44"/>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -17532,7 +17532,7 @@
       <c r="AB109" s="42"/>
       <c r="AC109" s="44"/>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -17565,7 +17565,7 @@
       <c r="AB110" s="42"/>
       <c r="AC110" s="44"/>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -17598,7 +17598,7 @@
       <c r="AB111" s="42"/>
       <c r="AC111" s="44"/>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -17631,7 +17631,7 @@
       <c r="AB112" s="43"/>
       <c r="AC112" s="44"/>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -17664,7 +17664,7 @@
       <c r="AB113" s="42"/>
       <c r="AC113" s="44"/>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -17697,7 +17697,7 @@
       <c r="AB114" s="42"/>
       <c r="AC114" s="44"/>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -17730,7 +17730,7 @@
       <c r="AB115" s="42"/>
       <c r="AC115" s="44"/>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="AB116" s="42"/>
       <c r="AC116" s="44"/>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -17796,7 +17796,7 @@
       <c r="AB117" s="42"/>
       <c r="AC117" s="44"/>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -17829,7 +17829,7 @@
       <c r="AB118" s="42"/>
       <c r="AC118" s="44"/>
     </row>
-    <row r="119" spans="1:29" ht="15" thickBot="1">
+    <row r="119" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -17886,21 +17886,21 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="7.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="20" customWidth="1"/>
-    <col min="18" max="24" width="7.33203125" style="2" customWidth="1"/>
-    <col min="25" max="28" width="8.83203125" style="3"/>
-    <col min="29" max="29" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="20" customWidth="1"/>
+    <col min="18" max="24" width="7.28515625" style="2" customWidth="1"/>
+    <col min="25" max="28" width="8.85546875" style="3"/>
+    <col min="29" max="29" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -17922,8 +17922,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1"/>
-    <row r="4" spans="1:36" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:36" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="AB4" s="161"/>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="1:36" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -18150,7 +18150,7 @@
       <c r="AI6"/>
       <c r="AJ6"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -18250,7 +18250,7 @@
       <c r="AI7"/>
       <c r="AJ7"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -18350,7 +18350,7 @@
       <c r="AI8"/>
       <c r="AJ8"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -18450,7 +18450,7 @@
       <c r="AI9"/>
       <c r="AJ9"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -18550,7 +18550,7 @@
       <c r="AI10"/>
       <c r="AJ10"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -18650,7 +18650,7 @@
       <c r="AI11"/>
       <c r="AJ11"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="AI12"/>
       <c r="AJ12"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -18850,7 +18850,7 @@
       <c r="AI13"/>
       <c r="AJ13"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -18950,7 +18950,7 @@
       <c r="AI14"/>
       <c r="AJ14"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -19050,7 +19050,7 @@
       <c r="AI15"/>
       <c r="AJ15"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -19150,7 +19150,7 @@
       <c r="AI16"/>
       <c r="AJ16"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -19250,7 +19250,7 @@
       <c r="AI17"/>
       <c r="AJ17"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -19350,7 +19350,7 @@
       <c r="AI18"/>
       <c r="AJ18"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -19450,7 +19450,7 @@
       <c r="AI19"/>
       <c r="AJ19"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="AI20"/>
       <c r="AJ20"/>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="AI21"/>
       <c r="AJ21"/>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -19750,7 +19750,7 @@
       <c r="AI22"/>
       <c r="AJ22"/>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -19850,7 +19850,7 @@
       <c r="AI23"/>
       <c r="AJ23"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -19950,7 +19950,7 @@
       <c r="AI24"/>
       <c r="AJ24"/>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -20050,7 +20050,7 @@
       <c r="AI25"/>
       <c r="AJ25"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -20150,7 +20150,7 @@
       <c r="AI26"/>
       <c r="AJ26"/>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
@@ -20250,7 +20250,7 @@
       <c r="AI27"/>
       <c r="AJ27"/>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -20350,7 +20350,7 @@
       <c r="AI28"/>
       <c r="AJ28"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -20450,7 +20450,7 @@
       <c r="AI29"/>
       <c r="AJ29"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -20550,7 +20550,7 @@
       <c r="AI30"/>
       <c r="AJ30"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -20650,7 +20650,7 @@
       <c r="AI31"/>
       <c r="AJ31"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -20750,7 +20750,7 @@
       <c r="AI32"/>
       <c r="AJ32"/>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -20850,7 +20850,7 @@
       <c r="AI33"/>
       <c r="AJ33"/>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -20950,7 +20950,7 @@
       <c r="AI34"/>
       <c r="AJ34"/>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -21050,7 +21050,7 @@
       <c r="AI35"/>
       <c r="AJ35"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -21150,7 +21150,7 @@
       <c r="AI36"/>
       <c r="AJ36"/>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -21250,7 +21250,7 @@
       <c r="AI37"/>
       <c r="AJ37"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -21350,7 +21350,7 @@
       <c r="AI38"/>
       <c r="AJ38"/>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -21450,7 +21450,7 @@
       <c r="AI39"/>
       <c r="AJ39"/>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -21550,7 +21550,7 @@
       <c r="AI40"/>
       <c r="AJ40"/>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -21650,7 +21650,7 @@
       <c r="AI41"/>
       <c r="AJ41"/>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -21750,7 +21750,7 @@
       <c r="AI42"/>
       <c r="AJ42"/>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -21850,7 +21850,7 @@
       <c r="AI43"/>
       <c r="AJ43"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -21950,7 +21950,7 @@
       <c r="AI44"/>
       <c r="AJ44"/>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -22050,7 +22050,7 @@
       <c r="AI45"/>
       <c r="AJ45"/>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -22150,7 +22150,7 @@
       <c r="AI46"/>
       <c r="AJ46"/>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -22250,7 +22250,7 @@
       <c r="AI47"/>
       <c r="AJ47"/>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -22350,7 +22350,7 @@
       <c r="AI48"/>
       <c r="AJ48"/>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -22450,7 +22450,7 @@
       <c r="AI49"/>
       <c r="AJ49"/>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -22550,7 +22550,7 @@
       <c r="AI50"/>
       <c r="AJ50"/>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -22650,7 +22650,7 @@
       <c r="AI51"/>
       <c r="AJ51"/>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -22750,7 +22750,7 @@
       <c r="AI52"/>
       <c r="AJ52"/>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -22850,7 +22850,7 @@
       <c r="AI53"/>
       <c r="AJ53"/>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -22950,7 +22950,7 @@
       <c r="AI54"/>
       <c r="AJ54"/>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -23050,7 +23050,7 @@
       <c r="AI55"/>
       <c r="AJ55"/>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -23150,7 +23150,7 @@
       <c r="AI56"/>
       <c r="AJ56"/>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -23250,7 +23250,7 @@
       <c r="AI57"/>
       <c r="AJ57"/>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -23350,7 +23350,7 @@
       <c r="AI58"/>
       <c r="AJ58"/>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -23450,7 +23450,7 @@
       <c r="AI59"/>
       <c r="AJ59"/>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
@@ -23550,7 +23550,7 @@
       <c r="AI60"/>
       <c r="AJ60"/>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -23650,7 +23650,7 @@
       <c r="AI61"/>
       <c r="AJ61"/>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -23750,7 +23750,7 @@
       <c r="AI62"/>
       <c r="AJ62"/>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -23850,7 +23850,7 @@
       <c r="AI63"/>
       <c r="AJ63"/>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -23950,7 +23950,7 @@
       <c r="AI64"/>
       <c r="AJ64"/>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -24050,7 +24050,7 @@
       <c r="AI65"/>
       <c r="AJ65"/>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -24150,7 +24150,7 @@
       <c r="AI66"/>
       <c r="AJ66"/>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -24250,7 +24250,7 @@
       <c r="AI67"/>
       <c r="AJ67"/>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -24350,7 +24350,7 @@
       <c r="AI68"/>
       <c r="AJ68"/>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -24450,7 +24450,7 @@
       <c r="AI69"/>
       <c r="AJ69"/>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -24550,7 +24550,7 @@
       <c r="AI70"/>
       <c r="AJ70"/>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -24650,7 +24650,7 @@
       <c r="AI71"/>
       <c r="AJ71"/>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -24750,7 +24750,7 @@
       <c r="AI72"/>
       <c r="AJ72"/>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -24850,7 +24850,7 @@
       <c r="AI73"/>
       <c r="AJ73"/>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -24950,7 +24950,7 @@
       <c r="AI74"/>
       <c r="AJ74"/>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -25050,7 +25050,7 @@
       <c r="AI75"/>
       <c r="AJ75"/>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -25150,7 +25150,7 @@
       <c r="AI76"/>
       <c r="AJ76"/>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -25250,7 +25250,7 @@
       <c r="AI77"/>
       <c r="AJ77"/>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -25350,7 +25350,7 @@
       <c r="AI78"/>
       <c r="AJ78"/>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -25450,7 +25450,7 @@
       <c r="AI79"/>
       <c r="AJ79"/>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -25550,7 +25550,7 @@
       <c r="AI80"/>
       <c r="AJ80"/>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -25650,7 +25650,7 @@
       <c r="AI81"/>
       <c r="AJ81"/>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -25750,7 +25750,7 @@
       <c r="AI82"/>
       <c r="AJ82"/>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -25850,7 +25850,7 @@
       <c r="AI83"/>
       <c r="AJ83"/>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -25950,7 +25950,7 @@
       <c r="AI84"/>
       <c r="AJ84"/>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -26050,7 +26050,7 @@
       <c r="AI85"/>
       <c r="AJ85"/>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -26150,7 +26150,7 @@
       <c r="AI86"/>
       <c r="AJ86"/>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -26250,7 +26250,7 @@
       <c r="AI87"/>
       <c r="AJ87"/>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -26350,7 +26350,7 @@
       <c r="AI88"/>
       <c r="AJ88"/>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -26450,7 +26450,7 @@
       <c r="AI89"/>
       <c r="AJ89"/>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -26550,7 +26550,7 @@
       <c r="AI90"/>
       <c r="AJ90"/>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -26650,7 +26650,7 @@
       <c r="AI91"/>
       <c r="AJ91"/>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -26750,7 +26750,7 @@
       <c r="AI92"/>
       <c r="AJ92"/>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -26850,7 +26850,7 @@
       <c r="AI93"/>
       <c r="AJ93"/>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -26950,7 +26950,7 @@
       <c r="AI94"/>
       <c r="AJ94"/>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -27050,7 +27050,7 @@
       <c r="AI95"/>
       <c r="AJ95"/>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -27150,7 +27150,7 @@
       <c r="AI96"/>
       <c r="AJ96"/>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -27250,7 +27250,7 @@
       <c r="AI97"/>
       <c r="AJ97"/>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -27350,7 +27350,7 @@
       <c r="AI98"/>
       <c r="AJ98"/>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -27450,7 +27450,7 @@
       <c r="AI99"/>
       <c r="AJ99"/>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -27550,7 +27550,7 @@
       <c r="AI100"/>
       <c r="AJ100"/>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -27650,7 +27650,7 @@
       <c r="AI101"/>
       <c r="AJ101"/>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -27750,7 +27750,7 @@
       <c r="AI102"/>
       <c r="AJ102"/>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -27850,7 +27850,7 @@
       <c r="AI103"/>
       <c r="AJ103"/>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -27950,7 +27950,7 @@
       <c r="AI104"/>
       <c r="AJ104"/>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -28050,7 +28050,7 @@
       <c r="AI105"/>
       <c r="AJ105"/>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -28150,7 +28150,7 @@
       <c r="AI106"/>
       <c r="AJ106"/>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -28250,7 +28250,7 @@
       <c r="AI107"/>
       <c r="AJ107"/>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -28350,7 +28350,7 @@
       <c r="AI108"/>
       <c r="AJ108"/>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -28450,7 +28450,7 @@
       <c r="AI109"/>
       <c r="AJ109"/>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -28550,7 +28550,7 @@
       <c r="AI110"/>
       <c r="AJ110"/>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -28650,7 +28650,7 @@
       <c r="AI111"/>
       <c r="AJ111"/>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -28750,7 +28750,7 @@
       <c r="AI112"/>
       <c r="AJ112"/>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -28850,7 +28850,7 @@
       <c r="AI113"/>
       <c r="AJ113"/>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -28950,7 +28950,7 @@
       <c r="AI114"/>
       <c r="AJ114"/>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -29050,7 +29050,7 @@
       <c r="AI115"/>
       <c r="AJ115"/>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -29150,7 +29150,7 @@
       <c r="AI116"/>
       <c r="AJ116"/>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -29250,7 +29250,7 @@
       <c r="AI117"/>
       <c r="AJ117"/>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -29350,7 +29350,7 @@
       <c r="AI118"/>
       <c r="AJ118"/>
     </row>
-    <row r="119" spans="1:36" ht="15" thickBot="1">
+    <row r="119" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -29475,25 +29475,25 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="7.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="7.33203125" style="2" customWidth="1"/>
-    <col min="25" max="28" width="8.83203125" style="3"/>
-    <col min="29" max="29" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" style="138" customWidth="1"/>
-    <col min="31" max="37" width="8.83203125" style="138"/>
-    <col min="38" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="7.28515625" style="2" customWidth="1"/>
+    <col min="25" max="28" width="8.85546875" style="3"/>
+    <col min="29" max="29" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="138" customWidth="1"/>
+    <col min="31" max="37" width="8.85546875" style="138"/>
+    <col min="38" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" thickBot="1">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -29507,7 +29507,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -29515,8 +29515,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15" thickBot="1"/>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
@@ -29565,7 +29565,7 @@
       <c r="AJ4" s="139"/>
       <c r="AK4" s="139"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -29659,7 +29659,7 @@
       <c r="AJ5" s="139"/>
       <c r="AK5" s="139"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -29752,7 +29752,7 @@
       <c r="AJ6" s="140"/>
       <c r="AK6" s="140"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -29845,7 +29845,7 @@
       <c r="AJ7" s="140"/>
       <c r="AK7" s="140"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -29939,7 +29939,7 @@
       <c r="AJ8" s="140"/>
       <c r="AK8" s="140"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -30032,7 +30032,7 @@
       <c r="AJ9" s="140"/>
       <c r="AK9" s="140"/>
     </row>
-    <row r="10" spans="1:37" s="135" customFormat="1">
+    <row r="10" spans="1:37" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="132" t="s">
         <v>9</v>
       </c>
@@ -30127,7 +30127,7 @@
       <c r="AJ10" s="140"/>
       <c r="AK10" s="140"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -30220,7 +30220,7 @@
       <c r="AJ11" s="140"/>
       <c r="AK11" s="140"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -30313,7 +30313,7 @@
       <c r="AJ12" s="140"/>
       <c r="AK12" s="140"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -30406,7 +30406,7 @@
       <c r="AJ13" s="140"/>
       <c r="AK13" s="140"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -30499,7 +30499,7 @@
       <c r="AJ14" s="140"/>
       <c r="AK14" s="140"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -30592,7 +30592,7 @@
       <c r="AJ15" s="140"/>
       <c r="AK15" s="140"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -30685,7 +30685,7 @@
       <c r="AJ16" s="140"/>
       <c r="AK16" s="140"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -30778,7 +30778,7 @@
       <c r="AJ17" s="140"/>
       <c r="AK17" s="140"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -30871,7 +30871,7 @@
       <c r="AJ18" s="140"/>
       <c r="AK18" s="140"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -30964,7 +30964,7 @@
       <c r="AJ19" s="140"/>
       <c r="AK19" s="140"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -31057,7 +31057,7 @@
       <c r="AJ20" s="140"/>
       <c r="AK20" s="140"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -31150,7 +31150,7 @@
       <c r="AJ21" s="140"/>
       <c r="AK21" s="140"/>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -31243,7 +31243,7 @@
       <c r="AJ22" s="140"/>
       <c r="AK22" s="140"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -31336,7 +31336,7 @@
       <c r="AJ23" s="140"/>
       <c r="AK23" s="140"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -31429,7 +31429,7 @@
       <c r="AJ24" s="140"/>
       <c r="AK24" s="140"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -31523,7 +31523,7 @@
       <c r="AJ25" s="140"/>
       <c r="AK25" s="140"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -31616,7 +31616,7 @@
       <c r="AJ26" s="140"/>
       <c r="AK26" s="140"/>
     </row>
-    <row r="27" spans="1:37" s="135" customFormat="1">
+    <row r="27" spans="1:37" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="132" t="s">
         <v>26</v>
       </c>
@@ -31711,7 +31711,7 @@
       <c r="AJ27" s="138"/>
       <c r="AK27" s="140"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -31804,7 +31804,7 @@
       <c r="AJ28" s="140"/>
       <c r="AK28" s="140"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -31897,7 +31897,7 @@
       <c r="AJ29" s="140"/>
       <c r="AK29" s="140"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -31990,7 +31990,7 @@
       <c r="AJ30" s="140"/>
       <c r="AK30" s="140"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -32083,7 +32083,7 @@
       <c r="AJ31" s="140"/>
       <c r="AK31" s="140"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -32176,7 +32176,7 @@
       <c r="AJ32" s="140"/>
       <c r="AK32" s="140"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -32269,7 +32269,7 @@
       <c r="AJ33" s="140"/>
       <c r="AK33" s="140"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -32362,7 +32362,7 @@
       <c r="AJ34" s="140"/>
       <c r="AK34" s="140"/>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -32455,7 +32455,7 @@
       <c r="AJ35" s="140"/>
       <c r="AK35" s="140"/>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -32548,7 +32548,7 @@
       <c r="AJ36" s="140"/>
       <c r="AK36" s="140"/>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -32641,7 +32641,7 @@
       <c r="AJ37" s="140"/>
       <c r="AK37" s="140"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -32734,7 +32734,7 @@
       <c r="AJ38" s="140"/>
       <c r="AK38" s="140"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -32827,7 +32827,7 @@
       <c r="AJ39" s="140"/>
       <c r="AK39" s="140"/>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -32920,7 +32920,7 @@
       <c r="AJ40" s="140"/>
       <c r="AK40" s="140"/>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -33013,7 +33013,7 @@
       <c r="AJ41" s="140"/>
       <c r="AK41" s="140"/>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -33106,7 +33106,7 @@
       <c r="AJ42" s="140"/>
       <c r="AK42" s="140"/>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -33199,7 +33199,7 @@
       <c r="AJ43" s="140"/>
       <c r="AK43" s="140"/>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -33292,7 +33292,7 @@
       <c r="AJ44" s="140"/>
       <c r="AK44" s="140"/>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -33385,7 +33385,7 @@
       <c r="AJ45" s="140"/>
       <c r="AK45" s="140"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -33478,7 +33478,7 @@
       <c r="AJ46" s="140"/>
       <c r="AK46" s="140"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -33571,7 +33571,7 @@
       <c r="AJ47" s="140"/>
       <c r="AK47" s="140"/>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -33664,7 +33664,7 @@
       <c r="AJ48" s="140"/>
       <c r="AK48" s="140"/>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -33757,7 +33757,7 @@
       <c r="AJ49" s="140"/>
       <c r="AK49" s="140"/>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -33850,7 +33850,7 @@
       <c r="AJ50" s="140"/>
       <c r="AK50" s="140"/>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -33943,7 +33943,7 @@
       <c r="AJ51" s="140"/>
       <c r="AK51" s="140"/>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -34036,7 +34036,7 @@
       <c r="AJ52" s="140"/>
       <c r="AK52" s="140"/>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -34129,7 +34129,7 @@
       <c r="AJ53" s="140"/>
       <c r="AK53" s="140"/>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -34222,7 +34222,7 @@
       <c r="AJ54" s="140"/>
       <c r="AK54" s="140"/>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -34316,7 +34316,7 @@
       <c r="AJ55" s="140"/>
       <c r="AK55" s="140"/>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -34409,7 +34409,7 @@
       <c r="AJ56" s="140"/>
       <c r="AK56" s="140"/>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -34502,7 +34502,7 @@
       <c r="AJ57" s="140"/>
       <c r="AK57" s="140"/>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -34595,7 +34595,7 @@
       <c r="AJ58" s="140"/>
       <c r="AK58" s="140"/>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -34688,7 +34688,7 @@
       <c r="AJ59" s="140"/>
       <c r="AK59" s="140"/>
     </row>
-    <row r="60" spans="1:37" s="135" customFormat="1">
+    <row r="60" spans="1:37" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="132" t="s">
         <v>59</v>
       </c>
@@ -34783,7 +34783,7 @@
       <c r="AJ60" s="138"/>
       <c r="AK60" s="140"/>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -34876,7 +34876,7 @@
       <c r="AJ61" s="140"/>
       <c r="AK61" s="140"/>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -34969,7 +34969,7 @@
       <c r="AJ62" s="140"/>
       <c r="AK62" s="140"/>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -35062,7 +35062,7 @@
       <c r="AJ63" s="140"/>
       <c r="AK63" s="140"/>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -35155,7 +35155,7 @@
       <c r="AJ64" s="140"/>
       <c r="AK64" s="140"/>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -35248,7 +35248,7 @@
       <c r="AJ65" s="140"/>
       <c r="AK65" s="140"/>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -35341,7 +35341,7 @@
       <c r="AJ66" s="140"/>
       <c r="AK66" s="140"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -35434,7 +35434,7 @@
       <c r="AJ67" s="140"/>
       <c r="AK67" s="140"/>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -35527,7 +35527,7 @@
       <c r="AJ68" s="140"/>
       <c r="AK68" s="140"/>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -35620,7 +35620,7 @@
       <c r="AJ69" s="140"/>
       <c r="AK69" s="140"/>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -35713,7 +35713,7 @@
       <c r="AJ70" s="140"/>
       <c r="AK70" s="140"/>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -35806,7 +35806,7 @@
       <c r="AJ71" s="140"/>
       <c r="AK71" s="140"/>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -35899,7 +35899,7 @@
       <c r="AJ72" s="140"/>
       <c r="AK72" s="140"/>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -35992,7 +35992,7 @@
       <c r="AJ73" s="140"/>
       <c r="AK73" s="140"/>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -36085,7 +36085,7 @@
       <c r="AJ74" s="140"/>
       <c r="AK74" s="140"/>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -36178,7 +36178,7 @@
       <c r="AJ75" s="140"/>
       <c r="AK75" s="140"/>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -36271,7 +36271,7 @@
       <c r="AJ76" s="140"/>
       <c r="AK76" s="140"/>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -36364,7 +36364,7 @@
       <c r="AJ77" s="140"/>
       <c r="AK77" s="140"/>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -36457,7 +36457,7 @@
       <c r="AJ78" s="140"/>
       <c r="AK78" s="140"/>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -36550,7 +36550,7 @@
       <c r="AJ79" s="140"/>
       <c r="AK79" s="140"/>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -36643,7 +36643,7 @@
       <c r="AJ80" s="140"/>
       <c r="AK80" s="140"/>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -36736,7 +36736,7 @@
       <c r="AJ81" s="140"/>
       <c r="AK81" s="140"/>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -36829,7 +36829,7 @@
       <c r="AJ82" s="140"/>
       <c r="AK82" s="140"/>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -36922,7 +36922,7 @@
       <c r="AJ83" s="140"/>
       <c r="AK83" s="140"/>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -37015,7 +37015,7 @@
       <c r="AJ84" s="140"/>
       <c r="AK84" s="140"/>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -37108,7 +37108,7 @@
       <c r="AJ85" s="140"/>
       <c r="AK85" s="140"/>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -37201,7 +37201,7 @@
       <c r="AJ86" s="140"/>
       <c r="AK86" s="140"/>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -37294,7 +37294,7 @@
       <c r="AJ87" s="140"/>
       <c r="AK87" s="140"/>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -37387,7 +37387,7 @@
       <c r="AJ88" s="140"/>
       <c r="AK88" s="140"/>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -37480,7 +37480,7 @@
       <c r="AJ89" s="140"/>
       <c r="AK89" s="140"/>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -37573,7 +37573,7 @@
       <c r="AJ90" s="140"/>
       <c r="AK90" s="140"/>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -37666,7 +37666,7 @@
       <c r="AJ91" s="140"/>
       <c r="AK91" s="140"/>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -37759,7 +37759,7 @@
       <c r="AJ92" s="140"/>
       <c r="AK92" s="140"/>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -37852,7 +37852,7 @@
       <c r="AJ93" s="140"/>
       <c r="AK93" s="140"/>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -37945,7 +37945,7 @@
       <c r="AJ94" s="140"/>
       <c r="AK94" s="140"/>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -38038,7 +38038,7 @@
       <c r="AJ95" s="140"/>
       <c r="AK95" s="140"/>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -38131,7 +38131,7 @@
       <c r="AJ96" s="140"/>
       <c r="AK96" s="140"/>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -38224,7 +38224,7 @@
       <c r="AJ97" s="140"/>
       <c r="AK97" s="140"/>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -38317,7 +38317,7 @@
       <c r="AJ98" s="140"/>
       <c r="AK98" s="140"/>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -38410,7 +38410,7 @@
       <c r="AJ99" s="140"/>
       <c r="AK99" s="140"/>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -38503,7 +38503,7 @@
       <c r="AJ100" s="140"/>
       <c r="AK100" s="140"/>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -38596,7 +38596,7 @@
       <c r="AJ101" s="140"/>
       <c r="AK101" s="140"/>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -38689,7 +38689,7 @@
       <c r="AJ102" s="140"/>
       <c r="AK102" s="140"/>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -38782,7 +38782,7 @@
       <c r="AJ103" s="140"/>
       <c r="AK103" s="140"/>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -38875,7 +38875,7 @@
       <c r="AJ104" s="140"/>
       <c r="AK104" s="140"/>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -38968,7 +38968,7 @@
       <c r="AJ105" s="140"/>
       <c r="AK105" s="140"/>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -39061,7 +39061,7 @@
       <c r="AJ106" s="140"/>
       <c r="AK106" s="140"/>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -39154,7 +39154,7 @@
       <c r="AJ107" s="140"/>
       <c r="AK107" s="140"/>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -39247,7 +39247,7 @@
       <c r="AJ108" s="140"/>
       <c r="AK108" s="140"/>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -39340,7 +39340,7 @@
       <c r="AJ109" s="140"/>
       <c r="AK109" s="140"/>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -39433,7 +39433,7 @@
       <c r="AJ110" s="140"/>
       <c r="AK110" s="140"/>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -39526,7 +39526,7 @@
       <c r="AJ111" s="140"/>
       <c r="AK111" s="140"/>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -39619,7 +39619,7 @@
       <c r="AJ112" s="140"/>
       <c r="AK112" s="140"/>
     </row>
-    <row r="113" spans="1:37">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -39706,7 +39706,7 @@
       <c r="AB113" s="44"/>
       <c r="AK113" s="140"/>
     </row>
-    <row r="114" spans="1:37">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -39793,7 +39793,7 @@
       <c r="AB114" s="44"/>
       <c r="AK114" s="140"/>
     </row>
-    <row r="115" spans="1:37">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -39880,7 +39880,7 @@
       <c r="AB115" s="44"/>
       <c r="AK115" s="140"/>
     </row>
-    <row r="116" spans="1:37">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -39967,7 +39967,7 @@
       <c r="AB116" s="44"/>
       <c r="AK116" s="140"/>
     </row>
-    <row r="117" spans="1:37">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -40054,7 +40054,7 @@
       <c r="AB117" s="44"/>
       <c r="AK117" s="140"/>
     </row>
-    <row r="118" spans="1:37">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -40141,7 +40141,7 @@
       <c r="AB118" s="44"/>
       <c r="AK118" s="140"/>
     </row>
-    <row r="119" spans="1:37" ht="15" thickBot="1">
+    <row r="119" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -40253,23 +40253,23 @@
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="7.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="7.33203125" style="2" customWidth="1"/>
-    <col min="25" max="29" width="8.83203125" style="3"/>
-    <col min="30" max="30" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="7.28515625" style="2" customWidth="1"/>
+    <col min="25" max="29" width="8.85546875" style="3"/>
+    <col min="30" max="30" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -40283,7 +40283,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -40291,8 +40291,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1"/>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
@@ -40333,7 +40333,7 @@
       </c>
       <c r="AB4" s="161"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -40419,7 +40419,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -40479,7 +40479,7 @@
       <c r="AA6" s="42"/>
       <c r="AB6" s="44"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -40539,7 +40539,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="44"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -40599,7 +40599,7 @@
       <c r="AA8" s="42"/>
       <c r="AB8" s="44"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -40659,7 +40659,7 @@
       <c r="AA9" s="42"/>
       <c r="AB9" s="44"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -40719,7 +40719,7 @@
       <c r="AA10" s="42"/>
       <c r="AB10" s="44"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -40779,7 +40779,7 @@
       <c r="AA11" s="42"/>
       <c r="AB11" s="44"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -40839,7 +40839,7 @@
       <c r="AA12" s="42"/>
       <c r="AB12" s="44"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -40899,7 +40899,7 @@
       <c r="AA13" s="42"/>
       <c r="AB13" s="44"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -40959,7 +40959,7 @@
       <c r="AA14" s="42"/>
       <c r="AB14" s="44"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -41019,7 +41019,7 @@
       <c r="AA15" s="42"/>
       <c r="AB15" s="44"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -41079,7 +41079,7 @@
       <c r="AA16" s="42"/>
       <c r="AB16" s="44"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -41139,7 +41139,7 @@
       <c r="AA17" s="42"/>
       <c r="AB17" s="44"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -41199,7 +41199,7 @@
       <c r="AA18" s="42"/>
       <c r="AB18" s="44"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -41259,7 +41259,7 @@
       <c r="AA19" s="42"/>
       <c r="AB19" s="44"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -41319,7 +41319,7 @@
       <c r="AA20" s="42"/>
       <c r="AB20" s="44"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -41379,7 +41379,7 @@
       <c r="AA21" s="42"/>
       <c r="AB21" s="44"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -41439,7 +41439,7 @@
       <c r="AA22" s="42"/>
       <c r="AB22" s="44"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -41499,7 +41499,7 @@
       <c r="AA23" s="42"/>
       <c r="AB23" s="44"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -41559,7 +41559,7 @@
       <c r="AA24" s="42"/>
       <c r="AB24" s="44"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -41619,7 +41619,7 @@
       <c r="AA25" s="42"/>
       <c r="AB25" s="44"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -41679,7 +41679,7 @@
       <c r="AA26" s="42"/>
       <c r="AB26" s="44"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
@@ -41739,7 +41739,7 @@
       <c r="AA27" s="42"/>
       <c r="AB27" s="44"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -41799,7 +41799,7 @@
       <c r="AA28" s="42"/>
       <c r="AB28" s="44"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -41859,7 +41859,7 @@
       <c r="AA29" s="42"/>
       <c r="AB29" s="44"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -41919,7 +41919,7 @@
       <c r="AA30" s="42"/>
       <c r="AB30" s="44"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -41979,7 +41979,7 @@
       <c r="AA31" s="42"/>
       <c r="AB31" s="44"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -42039,7 +42039,7 @@
       <c r="AA32" s="42"/>
       <c r="AB32" s="44"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -42099,7 +42099,7 @@
       <c r="AA33" s="42"/>
       <c r="AB33" s="44"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -42159,7 +42159,7 @@
       <c r="AA34" s="42"/>
       <c r="AB34" s="44"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -42219,7 +42219,7 @@
       <c r="AA35" s="42"/>
       <c r="AB35" s="44"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -42279,7 +42279,7 @@
       <c r="AA36" s="42"/>
       <c r="AB36" s="44"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -42339,7 +42339,7 @@
       <c r="AA37" s="42"/>
       <c r="AB37" s="44"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -42399,7 +42399,7 @@
       <c r="AA38" s="42"/>
       <c r="AB38" s="44"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -42459,7 +42459,7 @@
       <c r="AA39" s="42"/>
       <c r="AB39" s="44"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -42519,7 +42519,7 @@
       <c r="AA40" s="42"/>
       <c r="AB40" s="44"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -42579,7 +42579,7 @@
       <c r="AA41" s="42"/>
       <c r="AB41" s="44"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -42639,7 +42639,7 @@
       <c r="AA42" s="42"/>
       <c r="AB42" s="44"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -42699,7 +42699,7 @@
       <c r="AA43" s="42"/>
       <c r="AB43" s="44"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -42759,7 +42759,7 @@
       <c r="AA44" s="42"/>
       <c r="AB44" s="44"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -42819,7 +42819,7 @@
       <c r="AA45" s="42"/>
       <c r="AB45" s="44"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -42879,7 +42879,7 @@
       <c r="AA46" s="42"/>
       <c r="AB46" s="44"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -42939,7 +42939,7 @@
       <c r="AA47" s="42"/>
       <c r="AB47" s="44"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -42999,7 +42999,7 @@
       <c r="AA48" s="42"/>
       <c r="AB48" s="44"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -43059,7 +43059,7 @@
       <c r="AA49" s="42"/>
       <c r="AB49" s="44"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -43119,7 +43119,7 @@
       <c r="AA50" s="42"/>
       <c r="AB50" s="44"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -43179,7 +43179,7 @@
       <c r="AA51" s="42"/>
       <c r="AB51" s="44"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -43239,7 +43239,7 @@
       <c r="AA52" s="42"/>
       <c r="AB52" s="44"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -43299,7 +43299,7 @@
       <c r="AA53" s="42"/>
       <c r="AB53" s="44"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -43359,7 +43359,7 @@
       <c r="AA54" s="42"/>
       <c r="AB54" s="44"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -43419,7 +43419,7 @@
       <c r="AA55" s="42"/>
       <c r="AB55" s="44"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -43479,7 +43479,7 @@
       <c r="AA56" s="42"/>
       <c r="AB56" s="44"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -43539,7 +43539,7 @@
       <c r="AA57" s="42"/>
       <c r="AB57" s="44"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -43599,7 +43599,7 @@
       <c r="AA58" s="42"/>
       <c r="AB58" s="44"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -43659,7 +43659,7 @@
       <c r="AA59" s="42"/>
       <c r="AB59" s="44"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
@@ -43719,7 +43719,7 @@
       <c r="AA60" s="42"/>
       <c r="AB60" s="44"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -43779,7 +43779,7 @@
       <c r="AA61" s="42"/>
       <c r="AB61" s="44"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -43839,7 +43839,7 @@
       <c r="AA62" s="42"/>
       <c r="AB62" s="44"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -43899,7 +43899,7 @@
       <c r="AA63" s="42"/>
       <c r="AB63" s="44"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -43959,7 +43959,7 @@
       <c r="AA64" s="42"/>
       <c r="AB64" s="44"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -44019,7 +44019,7 @@
       <c r="AA65" s="42"/>
       <c r="AB65" s="44"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -44079,7 +44079,7 @@
       <c r="AA66" s="42"/>
       <c r="AB66" s="44"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -44139,7 +44139,7 @@
       <c r="AA67" s="42"/>
       <c r="AB67" s="44"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -44199,7 +44199,7 @@
       <c r="AA68" s="42"/>
       <c r="AB68" s="44"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -44259,7 +44259,7 @@
       <c r="AA69" s="42"/>
       <c r="AB69" s="44"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -44319,7 +44319,7 @@
       <c r="AA70" s="42"/>
       <c r="AB70" s="44"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -44379,7 +44379,7 @@
       <c r="AA71" s="42"/>
       <c r="AB71" s="44"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -44439,7 +44439,7 @@
       <c r="AA72" s="42"/>
       <c r="AB72" s="44"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -44499,7 +44499,7 @@
       <c r="AA73" s="42"/>
       <c r="AB73" s="44"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -44559,7 +44559,7 @@
       <c r="AA74" s="42"/>
       <c r="AB74" s="44"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -44619,7 +44619,7 @@
       <c r="AA75" s="42"/>
       <c r="AB75" s="44"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -44679,7 +44679,7 @@
       <c r="AA76" s="42"/>
       <c r="AB76" s="44"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -44739,7 +44739,7 @@
       <c r="AA77" s="42"/>
       <c r="AB77" s="44"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -44799,7 +44799,7 @@
       <c r="AA78" s="42"/>
       <c r="AB78" s="44"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -44859,7 +44859,7 @@
       <c r="AA79" s="42"/>
       <c r="AB79" s="44"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -44919,7 +44919,7 @@
       <c r="AA80" s="42"/>
       <c r="AB80" s="44"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -44979,7 +44979,7 @@
       <c r="AA81" s="42"/>
       <c r="AB81" s="44"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -45039,7 +45039,7 @@
       <c r="AA82" s="42"/>
       <c r="AB82" s="44"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -45099,7 +45099,7 @@
       <c r="AA83" s="42"/>
       <c r="AB83" s="44"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -45159,7 +45159,7 @@
       <c r="AA84" s="42"/>
       <c r="AB84" s="44"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -45219,7 +45219,7 @@
       <c r="AA85" s="42"/>
       <c r="AB85" s="44"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -45279,7 +45279,7 @@
       <c r="AA86" s="42"/>
       <c r="AB86" s="44"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -45339,7 +45339,7 @@
       <c r="AA87" s="42"/>
       <c r="AB87" s="44"/>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -45399,7 +45399,7 @@
       <c r="AA88" s="42"/>
       <c r="AB88" s="44"/>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -45459,7 +45459,7 @@
       <c r="AA89" s="42"/>
       <c r="AB89" s="44"/>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -45519,7 +45519,7 @@
       <c r="AA90" s="42"/>
       <c r="AB90" s="44"/>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -45579,7 +45579,7 @@
       <c r="AA91" s="42"/>
       <c r="AB91" s="44"/>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -45639,7 +45639,7 @@
       <c r="AA92" s="42"/>
       <c r="AB92" s="44"/>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -45699,7 +45699,7 @@
       <c r="AA93" s="42"/>
       <c r="AB93" s="44"/>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -45759,7 +45759,7 @@
       <c r="AA94" s="42"/>
       <c r="AB94" s="44"/>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -45819,7 +45819,7 @@
       <c r="AA95" s="42"/>
       <c r="AB95" s="44"/>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -45879,7 +45879,7 @@
       <c r="AA96" s="42"/>
       <c r="AB96" s="44"/>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -45939,7 +45939,7 @@
       <c r="AA97" s="42"/>
       <c r="AB97" s="44"/>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -45999,7 +45999,7 @@
       <c r="AA98" s="42"/>
       <c r="AB98" s="44"/>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -46059,7 +46059,7 @@
       <c r="AA99" s="42"/>
       <c r="AB99" s="44"/>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -46119,7 +46119,7 @@
       <c r="AA100" s="42"/>
       <c r="AB100" s="44"/>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -46179,7 +46179,7 @@
       <c r="AA101" s="42"/>
       <c r="AB101" s="44"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -46239,7 +46239,7 @@
       <c r="AA102" s="42"/>
       <c r="AB102" s="44"/>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -46299,7 +46299,7 @@
       <c r="AA103" s="42"/>
       <c r="AB103" s="44"/>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -46359,7 +46359,7 @@
       <c r="AA104" s="42"/>
       <c r="AB104" s="44"/>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -46419,7 +46419,7 @@
       <c r="AA105" s="42"/>
       <c r="AB105" s="44"/>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -46479,7 +46479,7 @@
       <c r="AA106" s="42"/>
       <c r="AB106" s="44"/>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -46539,7 +46539,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="44"/>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -46599,7 +46599,7 @@
       <c r="AA108" s="42"/>
       <c r="AB108" s="44"/>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -46659,7 +46659,7 @@
       <c r="AA109" s="42"/>
       <c r="AB109" s="44"/>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -46719,7 +46719,7 @@
       <c r="AA110" s="42"/>
       <c r="AB110" s="44"/>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -46779,7 +46779,7 @@
       <c r="AA111" s="42"/>
       <c r="AB111" s="44"/>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -46839,7 +46839,7 @@
       <c r="AA112" s="43"/>
       <c r="AB112" s="44"/>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -46899,7 +46899,7 @@
       <c r="AA113" s="42"/>
       <c r="AB113" s="44"/>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -46959,7 +46959,7 @@
       <c r="AA114" s="42"/>
       <c r="AB114" s="44"/>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -47019,7 +47019,7 @@
       <c r="AA115" s="42"/>
       <c r="AB115" s="44"/>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -47079,7 +47079,7 @@
       <c r="AA116" s="42"/>
       <c r="AB116" s="44"/>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -47139,7 +47139,7 @@
       <c r="AA117" s="42"/>
       <c r="AB117" s="44"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -47199,7 +47199,7 @@
       <c r="AA118" s="42"/>
       <c r="AB118" s="44"/>
     </row>
-    <row r="119" spans="1:28" ht="15" thickBot="1">
+    <row r="119" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -47284,21 +47284,21 @@
       <selection activeCell="AA119" sqref="AA119:AB119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="7.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="20" customWidth="1"/>
     <col min="18" max="18" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="7.33203125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="3"/>
+    <col min="19" max="19" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="7.28515625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -47312,7 +47312,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -47320,8 +47320,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1"/>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
@@ -47362,7 +47362,7 @@
       </c>
       <c r="AB4" s="161"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -47448,7 +47448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -47541,7 +47541,7 @@
       </c>
       <c r="AC6" s="142"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -47634,7 +47634,7 @@
       </c>
       <c r="AC7" s="142"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -47727,7 +47727,7 @@
       </c>
       <c r="AC8" s="142"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -47820,7 +47820,7 @@
       </c>
       <c r="AC9" s="142"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -47913,7 +47913,7 @@
       </c>
       <c r="AC10" s="142"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -48006,7 +48006,7 @@
       </c>
       <c r="AC11" s="142"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -48099,7 +48099,7 @@
       </c>
       <c r="AC12" s="142"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -48192,7 +48192,7 @@
       </c>
       <c r="AC13" s="142"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -48285,7 +48285,7 @@
       </c>
       <c r="AC14" s="142"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -48378,7 +48378,7 @@
       </c>
       <c r="AC15" s="142"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -48471,7 +48471,7 @@
       </c>
       <c r="AC16" s="142"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -48564,7 +48564,7 @@
       </c>
       <c r="AC17" s="142"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -48657,7 +48657,7 @@
       </c>
       <c r="AC18" s="142"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -48750,7 +48750,7 @@
       </c>
       <c r="AC19" s="142"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -48843,7 +48843,7 @@
       </c>
       <c r="AC20" s="142"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -48936,7 +48936,7 @@
       </c>
       <c r="AC21" s="142"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -49029,7 +49029,7 @@
       </c>
       <c r="AC22" s="142"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -49122,7 +49122,7 @@
       </c>
       <c r="AC23" s="142"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -49215,7 +49215,7 @@
       </c>
       <c r="AC24" s="142"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="AC25" s="142"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -49401,7 +49401,7 @@
       </c>
       <c r="AC26" s="142"/>
     </row>
-    <row r="27" spans="1:29" s="138" customFormat="1">
+    <row r="27" spans="1:29" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="143" t="s">
         <v>26</v>
       </c>
@@ -49494,7 +49494,7 @@
       </c>
       <c r="AC27" s="144"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -49587,7 +49587,7 @@
       </c>
       <c r="AC28" s="142"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -49680,7 +49680,7 @@
       </c>
       <c r="AC29" s="142"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -49773,7 +49773,7 @@
       </c>
       <c r="AC30" s="142"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -49866,7 +49866,7 @@
       </c>
       <c r="AC31" s="142"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -49959,7 +49959,7 @@
       </c>
       <c r="AC32" s="142"/>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -50052,7 +50052,7 @@
       </c>
       <c r="AC33" s="142"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -50145,7 +50145,7 @@
       </c>
       <c r="AC34" s="142"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -50238,7 +50238,7 @@
       </c>
       <c r="AC35" s="142"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -50331,7 +50331,7 @@
       </c>
       <c r="AC36" s="142"/>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -50424,7 +50424,7 @@
       </c>
       <c r="AC37" s="142"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -50517,7 +50517,7 @@
       </c>
       <c r="AC38" s="142"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -50610,7 +50610,7 @@
       </c>
       <c r="AC39" s="142"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -50703,7 +50703,7 @@
       </c>
       <c r="AC40" s="142"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -50796,7 +50796,7 @@
       </c>
       <c r="AC41" s="142"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -50889,7 +50889,7 @@
       </c>
       <c r="AC42" s="142"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -50982,7 +50982,7 @@
       </c>
       <c r="AC43" s="142"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -51075,7 +51075,7 @@
       </c>
       <c r="AC44" s="142"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -51168,7 +51168,7 @@
       </c>
       <c r="AC45" s="142"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -51261,7 +51261,7 @@
       </c>
       <c r="AC46" s="142"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -51354,7 +51354,7 @@
       </c>
       <c r="AC47" s="142"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -51447,7 +51447,7 @@
       </c>
       <c r="AC48" s="142"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="AC49" s="142"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -51633,7 +51633,7 @@
       </c>
       <c r="AC50" s="142"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -51726,7 +51726,7 @@
       </c>
       <c r="AC51" s="142"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -51819,7 +51819,7 @@
       </c>
       <c r="AC52" s="142"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -51912,7 +51912,7 @@
       </c>
       <c r="AC53" s="142"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -52005,7 +52005,7 @@
       </c>
       <c r="AC54" s="142"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -52098,7 +52098,7 @@
       </c>
       <c r="AC55" s="142"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -52191,7 +52191,7 @@
       </c>
       <c r="AC56" s="142"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -52284,7 +52284,7 @@
       </c>
       <c r="AC57" s="142"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -52377,7 +52377,7 @@
       </c>
       <c r="AC58" s="142"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -52470,7 +52470,7 @@
       </c>
       <c r="AC59" s="142"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
@@ -52563,7 +52563,7 @@
       </c>
       <c r="AC60" s="142"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -52656,7 +52656,7 @@
       </c>
       <c r="AC61" s="142"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="AC62" s="142"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -52842,7 +52842,7 @@
       </c>
       <c r="AC63" s="142"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -52935,7 +52935,7 @@
       </c>
       <c r="AC64" s="142"/>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -53028,7 +53028,7 @@
       </c>
       <c r="AC65" s="142"/>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -53121,7 +53121,7 @@
       </c>
       <c r="AC66" s="142"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -53214,7 +53214,7 @@
       </c>
       <c r="AC67" s="142"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -53307,7 +53307,7 @@
       </c>
       <c r="AC68" s="142"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -53400,7 +53400,7 @@
       </c>
       <c r="AC69" s="142"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -53493,7 +53493,7 @@
       </c>
       <c r="AC70" s="142"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -53586,7 +53586,7 @@
       </c>
       <c r="AC71" s="142"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -53679,7 +53679,7 @@
       </c>
       <c r="AC72" s="142"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="AC73" s="142"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -53865,7 +53865,7 @@
       </c>
       <c r="AC74" s="142"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -53958,7 +53958,7 @@
       </c>
       <c r="AC75" s="142"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -54051,7 +54051,7 @@
       </c>
       <c r="AC76" s="142"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -54144,7 +54144,7 @@
       </c>
       <c r="AC77" s="142"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -54237,7 +54237,7 @@
       </c>
       <c r="AC78" s="142"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -54330,7 +54330,7 @@
       </c>
       <c r="AC79" s="142"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -54423,7 +54423,7 @@
       </c>
       <c r="AC80" s="142"/>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -54516,7 +54516,7 @@
       </c>
       <c r="AC81" s="142"/>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -54609,7 +54609,7 @@
       </c>
       <c r="AC82" s="142"/>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -54702,7 +54702,7 @@
       </c>
       <c r="AC83" s="142"/>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -54795,7 +54795,7 @@
       </c>
       <c r="AC84" s="142"/>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -54888,7 +54888,7 @@
       </c>
       <c r="AC85" s="142"/>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -54981,7 +54981,7 @@
       </c>
       <c r="AC86" s="142"/>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -55074,7 +55074,7 @@
       </c>
       <c r="AC87" s="142"/>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -55167,7 +55167,7 @@
       </c>
       <c r="AC88" s="142"/>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -55260,7 +55260,7 @@
       </c>
       <c r="AC89" s="142"/>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -55353,7 +55353,7 @@
       </c>
       <c r="AC90" s="142"/>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -55446,7 +55446,7 @@
       </c>
       <c r="AC91" s="142"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -55539,7 +55539,7 @@
       </c>
       <c r="AC92" s="142"/>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -55632,7 +55632,7 @@
       </c>
       <c r="AC93" s="142"/>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -55725,7 +55725,7 @@
       </c>
       <c r="AC94" s="142"/>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -55818,7 +55818,7 @@
       </c>
       <c r="AC95" s="142"/>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -55911,7 +55911,7 @@
       </c>
       <c r="AC96" s="142"/>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="AC97" s="142"/>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -56097,7 +56097,7 @@
       </c>
       <c r="AC98" s="142"/>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -56190,7 +56190,7 @@
       </c>
       <c r="AC99" s="142"/>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -56283,7 +56283,7 @@
       </c>
       <c r="AC100" s="142"/>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -56376,7 +56376,7 @@
       </c>
       <c r="AC101" s="142"/>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -56469,7 +56469,7 @@
       </c>
       <c r="AC102" s="142"/>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -56562,7 +56562,7 @@
       </c>
       <c r="AC103" s="142"/>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -56655,7 +56655,7 @@
       </c>
       <c r="AC104" s="142"/>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -56748,7 +56748,7 @@
       </c>
       <c r="AC105" s="142"/>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -56841,7 +56841,7 @@
       </c>
       <c r="AC106" s="142"/>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -56934,7 +56934,7 @@
       </c>
       <c r="AC107" s="142"/>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -57027,7 +57027,7 @@
       </c>
       <c r="AC108" s="142"/>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -57120,7 +57120,7 @@
       </c>
       <c r="AC109" s="142"/>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -57213,7 +57213,7 @@
       </c>
       <c r="AC110" s="142"/>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -57306,7 +57306,7 @@
       </c>
       <c r="AC111" s="142"/>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -57399,7 +57399,7 @@
       </c>
       <c r="AC112" s="142"/>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -57492,7 +57492,7 @@
       </c>
       <c r="AC113" s="142"/>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -57585,7 +57585,7 @@
       </c>
       <c r="AC114" s="142"/>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -57678,7 +57678,7 @@
       </c>
       <c r="AC115" s="142"/>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -57771,7 +57771,7 @@
       </c>
       <c r="AC116" s="142"/>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -57864,7 +57864,7 @@
       </c>
       <c r="AC117" s="142"/>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -57957,7 +57957,7 @@
       </c>
       <c r="AC118" s="142"/>
     </row>
-    <row r="119" spans="1:29" ht="15" thickBot="1">
+    <row r="119" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -58078,21 +58078,21 @@
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="7.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="7.33203125" style="2" customWidth="1"/>
-    <col min="24" max="28" width="8.83203125" style="3"/>
-    <col min="29" max="29" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="3"/>
+    <col min="19" max="19" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="7.28515625" style="2" customWidth="1"/>
+    <col min="24" max="28" width="8.85546875" style="3"/>
+    <col min="29" max="29" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -58106,7 +58106,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -58114,8 +58114,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1"/>
-    <row r="4" spans="1:36" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:36" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
@@ -58156,7 +58156,7 @@
       </c>
       <c r="AB4" s="161"/>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="1:36" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -58242,7 +58242,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -58342,7 +58342,7 @@
       <c r="AI6"/>
       <c r="AJ6"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -58442,7 +58442,7 @@
       <c r="AI7"/>
       <c r="AJ7"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -58542,7 +58542,7 @@
       <c r="AI8"/>
       <c r="AJ8"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -58642,7 +58642,7 @@
       <c r="AI9"/>
       <c r="AJ9"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -58742,7 +58742,7 @@
       <c r="AI10"/>
       <c r="AJ10"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -58842,7 +58842,7 @@
       <c r="AI11"/>
       <c r="AJ11"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -58942,7 +58942,7 @@
       <c r="AI12"/>
       <c r="AJ12"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -59042,7 +59042,7 @@
       <c r="AI13"/>
       <c r="AJ13"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -59142,7 +59142,7 @@
       <c r="AI14"/>
       <c r="AJ14"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -59242,7 +59242,7 @@
       <c r="AI15"/>
       <c r="AJ15"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -59342,7 +59342,7 @@
       <c r="AI16"/>
       <c r="AJ16"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -59442,7 +59442,7 @@
       <c r="AI17"/>
       <c r="AJ17"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -59542,7 +59542,7 @@
       <c r="AI18"/>
       <c r="AJ18"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -59642,7 +59642,7 @@
       <c r="AI19"/>
       <c r="AJ19"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -59742,7 +59742,7 @@
       <c r="AI20"/>
       <c r="AJ20"/>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -59842,7 +59842,7 @@
       <c r="AI21"/>
       <c r="AJ21"/>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -59942,7 +59942,7 @@
       <c r="AI22"/>
       <c r="AJ22"/>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -60042,7 +60042,7 @@
       <c r="AI23"/>
       <c r="AJ23"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -60142,7 +60142,7 @@
       <c r="AI24"/>
       <c r="AJ24"/>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -60242,7 +60242,7 @@
       <c r="AI25"/>
       <c r="AJ25"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -60342,7 +60342,7 @@
       <c r="AI26"/>
       <c r="AJ26"/>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
@@ -60442,7 +60442,7 @@
       <c r="AI27"/>
       <c r="AJ27"/>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -60542,7 +60542,7 @@
       <c r="AI28"/>
       <c r="AJ28"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -60642,7 +60642,7 @@
       <c r="AI29"/>
       <c r="AJ29"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -60742,7 +60742,7 @@
       <c r="AI30"/>
       <c r="AJ30"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
@@ -60842,7 +60842,7 @@
       <c r="AI31"/>
       <c r="AJ31"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
@@ -60942,7 +60942,7 @@
       <c r="AI32"/>
       <c r="AJ32"/>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -61042,7 +61042,7 @@
       <c r="AI33"/>
       <c r="AJ33"/>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -61142,7 +61142,7 @@
       <c r="AI34"/>
       <c r="AJ34"/>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
@@ -61242,7 +61242,7 @@
       <c r="AI35"/>
       <c r="AJ35"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
@@ -61342,7 +61342,7 @@
       <c r="AI36"/>
       <c r="AJ36"/>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -61442,7 +61442,7 @@
       <c r="AI37"/>
       <c r="AJ37"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
@@ -61542,7 +61542,7 @@
       <c r="AI38"/>
       <c r="AJ38"/>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -61642,7 +61642,7 @@
       <c r="AI39"/>
       <c r="AJ39"/>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -61742,7 +61742,7 @@
       <c r="AI40"/>
       <c r="AJ40"/>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -61842,7 +61842,7 @@
       <c r="AI41"/>
       <c r="AJ41"/>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -61942,7 +61942,7 @@
       <c r="AI42"/>
       <c r="AJ42"/>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
@@ -62042,7 +62042,7 @@
       <c r="AI43"/>
       <c r="AJ43"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
@@ -62142,7 +62142,7 @@
       <c r="AI44"/>
       <c r="AJ44"/>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -62242,7 +62242,7 @@
       <c r="AI45"/>
       <c r="AJ45"/>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -62342,7 +62342,7 @@
       <c r="AI46"/>
       <c r="AJ46"/>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
@@ -62442,7 +62442,7 @@
       <c r="AI47"/>
       <c r="AJ47"/>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
@@ -62542,7 +62542,7 @@
       <c r="AI48"/>
       <c r="AJ48"/>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
@@ -62642,7 +62642,7 @@
       <c r="AI49"/>
       <c r="AJ49"/>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
@@ -62742,7 +62742,7 @@
       <c r="AI50"/>
       <c r="AJ50"/>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
@@ -62842,7 +62842,7 @@
       <c r="AI51"/>
       <c r="AJ51"/>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>51</v>
       </c>
@@ -62942,7 +62942,7 @@
       <c r="AI52"/>
       <c r="AJ52"/>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
@@ -63042,7 +63042,7 @@
       <c r="AI53"/>
       <c r="AJ53"/>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
@@ -63142,7 +63142,7 @@
       <c r="AI54"/>
       <c r="AJ54"/>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>54</v>
       </c>
@@ -63242,7 +63242,7 @@
       <c r="AI55"/>
       <c r="AJ55"/>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>55</v>
       </c>
@@ -63342,7 +63342,7 @@
       <c r="AI56"/>
       <c r="AJ56"/>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
@@ -63442,7 +63442,7 @@
       <c r="AI57"/>
       <c r="AJ57"/>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
@@ -63542,7 +63542,7 @@
       <c r="AI58"/>
       <c r="AJ58"/>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -63642,7 +63642,7 @@
       <c r="AI59"/>
       <c r="AJ59"/>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
@@ -63742,7 +63742,7 @@
       <c r="AI60"/>
       <c r="AJ60"/>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
@@ -63842,7 +63842,7 @@
       <c r="AI61"/>
       <c r="AJ61"/>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -63942,7 +63942,7 @@
       <c r="AI62"/>
       <c r="AJ62"/>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
@@ -64042,7 +64042,7 @@
       <c r="AI63"/>
       <c r="AJ63"/>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -64142,7 +64142,7 @@
       <c r="AI64"/>
       <c r="AJ64"/>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -64242,7 +64242,7 @@
       <c r="AI65"/>
       <c r="AJ65"/>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -64342,7 +64342,7 @@
       <c r="AI66"/>
       <c r="AJ66"/>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -64442,7 +64442,7 @@
       <c r="AI67"/>
       <c r="AJ67"/>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -64542,7 +64542,7 @@
       <c r="AI68"/>
       <c r="AJ68"/>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -64642,7 +64642,7 @@
       <c r="AI69"/>
       <c r="AJ69"/>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -64742,7 +64742,7 @@
       <c r="AI70"/>
       <c r="AJ70"/>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -64842,7 +64842,7 @@
       <c r="AI71"/>
       <c r="AJ71"/>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -64942,7 +64942,7 @@
       <c r="AI72"/>
       <c r="AJ72"/>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -65042,7 +65042,7 @@
       <c r="AI73"/>
       <c r="AJ73"/>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -65142,7 +65142,7 @@
       <c r="AI74"/>
       <c r="AJ74"/>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -65242,7 +65242,7 @@
       <c r="AI75"/>
       <c r="AJ75"/>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -65342,7 +65342,7 @@
       <c r="AI76"/>
       <c r="AJ76"/>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -65442,7 +65442,7 @@
       <c r="AI77"/>
       <c r="AJ77"/>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -65542,7 +65542,7 @@
       <c r="AI78"/>
       <c r="AJ78"/>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -65642,7 +65642,7 @@
       <c r="AI79"/>
       <c r="AJ79"/>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -65742,7 +65742,7 @@
       <c r="AI80"/>
       <c r="AJ80"/>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -65842,7 +65842,7 @@
       <c r="AI81"/>
       <c r="AJ81"/>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -65942,7 +65942,7 @@
       <c r="AI82"/>
       <c r="AJ82"/>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -66042,7 +66042,7 @@
       <c r="AI83"/>
       <c r="AJ83"/>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -66142,7 +66142,7 @@
       <c r="AI84"/>
       <c r="AJ84"/>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -66242,7 +66242,7 @@
       <c r="AI85"/>
       <c r="AJ85"/>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -66342,7 +66342,7 @@
       <c r="AI86"/>
       <c r="AJ86"/>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -66442,7 +66442,7 @@
       <c r="AI87"/>
       <c r="AJ87"/>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
@@ -66542,7 +66542,7 @@
       <c r="AI88"/>
       <c r="AJ88"/>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>88</v>
       </c>
@@ -66642,7 +66642,7 @@
       <c r="AI89"/>
       <c r="AJ89"/>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -66742,7 +66742,7 @@
       <c r="AI90"/>
       <c r="AJ90"/>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>90</v>
       </c>
@@ -66842,7 +66842,7 @@
       <c r="AI91"/>
       <c r="AJ91"/>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
@@ -66942,7 +66942,7 @@
       <c r="AI92"/>
       <c r="AJ92"/>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
@@ -67042,7 +67042,7 @@
       <c r="AI93"/>
       <c r="AJ93"/>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -67142,7 +67142,7 @@
       <c r="AI94"/>
       <c r="AJ94"/>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>94</v>
       </c>
@@ -67242,7 +67242,7 @@
       <c r="AI95"/>
       <c r="AJ95"/>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>95</v>
       </c>
@@ -67342,7 +67342,7 @@
       <c r="AI96"/>
       <c r="AJ96"/>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>96</v>
       </c>
@@ -67442,7 +67442,7 @@
       <c r="AI97"/>
       <c r="AJ97"/>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>97</v>
       </c>
@@ -67542,7 +67542,7 @@
       <c r="AI98"/>
       <c r="AJ98"/>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>98</v>
       </c>
@@ -67642,7 +67642,7 @@
       <c r="AI99"/>
       <c r="AJ99"/>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>99</v>
       </c>
@@ -67742,7 +67742,7 @@
       <c r="AI100"/>
       <c r="AJ100"/>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -67842,7 +67842,7 @@
       <c r="AI101"/>
       <c r="AJ101"/>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>101</v>
       </c>
@@ -67942,7 +67942,7 @@
       <c r="AI102"/>
       <c r="AJ102"/>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>102</v>
       </c>
@@ -68042,7 +68042,7 @@
       <c r="AI103"/>
       <c r="AJ103"/>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>103</v>
       </c>
@@ -68142,7 +68142,7 @@
       <c r="AI104"/>
       <c r="AJ104"/>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>104</v>
       </c>
@@ -68242,7 +68242,7 @@
       <c r="AI105"/>
       <c r="AJ105"/>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -68342,7 +68342,7 @@
       <c r="AI106"/>
       <c r="AJ106"/>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -68442,7 +68442,7 @@
       <c r="AI107"/>
       <c r="AJ107"/>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>107</v>
       </c>
@@ -68542,7 +68542,7 @@
       <c r="AI108"/>
       <c r="AJ108"/>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>108</v>
       </c>
@@ -68642,7 +68642,7 @@
       <c r="AI109"/>
       <c r="AJ109"/>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>109</v>
       </c>
@@ -68742,7 +68742,7 @@
       <c r="AI110"/>
       <c r="AJ110"/>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>110</v>
       </c>
@@ -68842,7 +68842,7 @@
       <c r="AI111"/>
       <c r="AJ111"/>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>111</v>
       </c>
@@ -68942,7 +68942,7 @@
       <c r="AI112"/>
       <c r="AJ112"/>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
@@ -69042,7 +69042,7 @@
       <c r="AI113"/>
       <c r="AJ113"/>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -69142,7 +69142,7 @@
       <c r="AI114"/>
       <c r="AJ114"/>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>114</v>
       </c>
@@ -69242,7 +69242,7 @@
       <c r="AI115"/>
       <c r="AJ115"/>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>115</v>
       </c>
@@ -69342,7 +69342,7 @@
       <c r="AI116"/>
       <c r="AJ116"/>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>116</v>
       </c>
@@ -69442,7 +69442,7 @@
       <c r="AI117"/>
       <c r="AJ117"/>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>117</v>
       </c>
@@ -69542,7 +69542,7 @@
       <c r="AI118"/>
       <c r="AJ118"/>
     </row>
-    <row r="119" spans="1:36" ht="15" thickBot="1">
+    <row r="119" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>118</v>
       </c>
@@ -69666,27 +69666,27 @@
       <selection activeCell="R113" sqref="R113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.1640625" style="96"/>
-    <col min="10" max="10" width="12.5" style="96" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="96"/>
+    <col min="1" max="1" width="24.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="96"/>
+    <col min="10" max="10" width="12.42578125" style="96" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="106"/>
       <c r="B2" s="106"/>
       <c r="C2" s="106"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="105"/>
       <c r="B3" s="169" t="s">
         <v>142</v>
@@ -69708,7 +69708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>153</v>
       </c>
@@ -69734,7 +69734,7 @@
       <c r="I4" s="173"/>
       <c r="J4" s="167"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>139</v>
       </c>
@@ -69757,7 +69757,7 @@
       </c>
       <c r="J5" s="167"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>101</v>
       </c>
@@ -69789,7 +69789,7 @@
       </c>
       <c r="J6" s="167"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>96</v>
       </c>
@@ -69821,7 +69821,7 @@
       </c>
       <c r="J7" s="167"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>138</v>
       </c>
@@ -69844,7 +69844,7 @@
       </c>
       <c r="J8" s="167"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
         <v>54</v>
       </c>
@@ -69876,7 +69876,7 @@
       </c>
       <c r="J9" s="167"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
         <v>24</v>
       </c>
@@ -69908,7 +69908,7 @@
       </c>
       <c r="J10" s="167"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
         <v>5</v>
       </c>
@@ -69931,7 +69931,7 @@
       <c r="I11" s="100"/>
       <c r="J11" s="167"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
         <v>137</v>
       </c>
@@ -69954,7 +69954,7 @@
       <c r="I12" s="100"/>
       <c r="J12" s="167"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
         <v>136</v>
       </c>
@@ -69986,7 +69986,7 @@
       </c>
       <c r="J13" s="167"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
         <v>82</v>
       </c>
@@ -70009,7 +70009,7 @@
       <c r="I14" s="100"/>
       <c r="J14" s="167"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
         <v>75</v>
       </c>
@@ -70041,7 +70041,7 @@
       </c>
       <c r="J15" s="167"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
         <v>135</v>
       </c>
@@ -70064,7 +70064,7 @@
       <c r="I16" s="100"/>
       <c r="J16" s="167"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
         <v>78</v>
       </c>
@@ -70087,7 +70087,7 @@
       <c r="I17" s="100"/>
       <c r="J17" s="167"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
         <v>63</v>
       </c>
@@ -70119,7 +70119,7 @@
       </c>
       <c r="J18" s="167"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
         <v>90</v>
       </c>
@@ -70142,7 +70142,7 @@
       <c r="I19" s="100"/>
       <c r="J19" s="167"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
         <v>134</v>
       </c>
@@ -70174,7 +70174,7 @@
       </c>
       <c r="J20" s="167"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99" t="s">
         <v>60</v>
       </c>
@@ -70197,7 +70197,7 @@
       <c r="I21" s="97"/>
       <c r="J21" s="168"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
         <v>139</v>
       </c>
@@ -70213,7 +70213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
         <v>101</v>
       </c>
@@ -70227,7 +70227,7 @@
       <c r="I23" s="100"/>
       <c r="J23" s="167"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="102" t="s">
         <v>96</v>
       </c>
@@ -70241,7 +70241,7 @@
       <c r="I24" s="100"/>
       <c r="J24" s="167"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="102" t="s">
         <v>138</v>
       </c>
@@ -70255,7 +70255,7 @@
       <c r="I25" s="100"/>
       <c r="J25" s="167"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="102" t="s">
         <v>54</v>
       </c>
@@ -70269,7 +70269,7 @@
       <c r="I26" s="100"/>
       <c r="J26" s="167"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="102" t="s">
         <v>24</v>
       </c>
@@ -70283,7 +70283,7 @@
       <c r="I27" s="100"/>
       <c r="J27" s="167"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="102" t="s">
         <v>5</v>
       </c>
@@ -70297,7 +70297,7 @@
       <c r="I28" s="100"/>
       <c r="J28" s="167"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="102" t="s">
         <v>137</v>
       </c>
@@ -70311,7 +70311,7 @@
       <c r="I29" s="100"/>
       <c r="J29" s="167"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="102" t="s">
         <v>136</v>
       </c>
@@ -70325,7 +70325,7 @@
       <c r="I30" s="100"/>
       <c r="J30" s="167"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="102" t="s">
         <v>82</v>
       </c>
@@ -70339,7 +70339,7 @@
       <c r="I31" s="100"/>
       <c r="J31" s="167"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="102" t="s">
         <v>75</v>
       </c>
@@ -70353,7 +70353,7 @@
       <c r="I32" s="100"/>
       <c r="J32" s="167"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="102" t="s">
         <v>135</v>
       </c>
@@ -70367,7 +70367,7 @@
       <c r="I33" s="100"/>
       <c r="J33" s="167"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="102" t="s">
         <v>78</v>
       </c>
@@ -70381,7 +70381,7 @@
       <c r="I34" s="100"/>
       <c r="J34" s="167"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="102" t="s">
         <v>63</v>
       </c>
@@ -70395,7 +70395,7 @@
       <c r="I35" s="100"/>
       <c r="J35" s="167"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="102" t="s">
         <v>90</v>
       </c>
@@ -70409,7 +70409,7 @@
       <c r="I36" s="100"/>
       <c r="J36" s="167"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="102" t="s">
         <v>134</v>
       </c>
@@ -70423,7 +70423,7 @@
       <c r="I37" s="100"/>
       <c r="J37" s="167"/>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="99" t="s">
         <v>60</v>
       </c>
@@ -70437,7 +70437,7 @@
       <c r="I38" s="97"/>
       <c r="J38" s="168"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="102" t="s">
         <v>139</v>
       </c>
@@ -70453,7 +70453,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="102" t="s">
         <v>101</v>
       </c>
@@ -70476,7 +70476,7 @@
       <c r="I40" s="100"/>
       <c r="J40" s="167"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="102" t="s">
         <v>96</v>
       </c>
@@ -70499,7 +70499,7 @@
       <c r="I41" s="100"/>
       <c r="J41" s="167"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="102" t="s">
         <v>138</v>
       </c>
@@ -70513,7 +70513,7 @@
       <c r="I42" s="100"/>
       <c r="J42" s="167"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="102" t="s">
         <v>54</v>
       </c>
@@ -70536,7 +70536,7 @@
       <c r="I43" s="100"/>
       <c r="J43" s="167"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="102" t="s">
         <v>24</v>
       </c>
@@ -70559,7 +70559,7 @@
       <c r="I44" s="100"/>
       <c r="J44" s="167"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="102" t="s">
         <v>5</v>
       </c>
@@ -70582,7 +70582,7 @@
       <c r="I45" s="100"/>
       <c r="J45" s="167"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="102" t="s">
         <v>137</v>
       </c>
@@ -70605,7 +70605,7 @@
       <c r="I46" s="100"/>
       <c r="J46" s="167"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="102" t="s">
         <v>136</v>
       </c>
@@ -70628,7 +70628,7 @@
       <c r="I47" s="100"/>
       <c r="J47" s="167"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="102" t="s">
         <v>82</v>
       </c>
@@ -70651,7 +70651,7 @@
       <c r="I48" s="100"/>
       <c r="J48" s="167"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="102" t="s">
         <v>75</v>
       </c>
@@ -70674,7 +70674,7 @@
       <c r="I49" s="100"/>
       <c r="J49" s="167"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="102" t="s">
         <v>135</v>
       </c>
@@ -70697,7 +70697,7 @@
       <c r="I50" s="100"/>
       <c r="J50" s="167"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="102" t="s">
         <v>78</v>
       </c>
@@ -70720,7 +70720,7 @@
       <c r="I51" s="100"/>
       <c r="J51" s="167"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="102" t="s">
         <v>63</v>
       </c>
@@ -70743,7 +70743,7 @@
       <c r="I52" s="100"/>
       <c r="J52" s="167"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>90</v>
       </c>
@@ -70766,7 +70766,7 @@
       <c r="I53" s="100"/>
       <c r="J53" s="167"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="102" t="s">
         <v>134</v>
       </c>
@@ -70789,7 +70789,7 @@
       <c r="I54" s="100"/>
       <c r="J54" s="167"/>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="99" t="s">
         <v>60</v>
       </c>
@@ -70812,7 +70812,7 @@
       <c r="I55" s="97"/>
       <c r="J55" s="168"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="102" t="s">
         <v>139</v>
       </c>
@@ -70828,7 +70828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="102" t="s">
         <v>101</v>
       </c>
@@ -70851,7 +70851,7 @@
       <c r="I57" s="100"/>
       <c r="J57" s="167"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="102" t="s">
         <v>96</v>
       </c>
@@ -70874,7 +70874,7 @@
       <c r="I58" s="100"/>
       <c r="J58" s="167"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="102" t="s">
         <v>138</v>
       </c>
@@ -70888,7 +70888,7 @@
       <c r="I59" s="100"/>
       <c r="J59" s="167"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="102" t="s">
         <v>54</v>
       </c>
@@ -70911,7 +70911,7 @@
       <c r="I60" s="100"/>
       <c r="J60" s="167"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="102" t="s">
         <v>24</v>
       </c>
@@ -70934,7 +70934,7 @@
       <c r="I61" s="100"/>
       <c r="J61" s="167"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="102" t="s">
         <v>5</v>
       </c>
@@ -70957,7 +70957,7 @@
       <c r="I62" s="100"/>
       <c r="J62" s="167"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="102" t="s">
         <v>137</v>
       </c>
@@ -70980,7 +70980,7 @@
       <c r="I63" s="100"/>
       <c r="J63" s="167"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="102" t="s">
         <v>136</v>
       </c>
@@ -71003,7 +71003,7 @@
       <c r="I64" s="100"/>
       <c r="J64" s="167"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="102" t="s">
         <v>82</v>
       </c>
@@ -71026,7 +71026,7 @@
       <c r="I65" s="100"/>
       <c r="J65" s="167"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="102" t="s">
         <v>75</v>
       </c>
@@ -71049,7 +71049,7 @@
       <c r="I66" s="100"/>
       <c r="J66" s="167"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="102" t="s">
         <v>135</v>
       </c>
@@ -71072,7 +71072,7 @@
       <c r="I67" s="100"/>
       <c r="J67" s="167"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="102" t="s">
         <v>78</v>
       </c>
@@ -71095,7 +71095,7 @@
       <c r="I68" s="100"/>
       <c r="J68" s="167"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="102" t="s">
         <v>63</v>
       </c>
@@ -71118,7 +71118,7 @@
       <c r="I69" s="100"/>
       <c r="J69" s="167"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="102" t="s">
         <v>90</v>
       </c>
@@ -71141,7 +71141,7 @@
       <c r="I70" s="100"/>
       <c r="J70" s="167"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="102" t="s">
         <v>134</v>
       </c>
@@ -71164,7 +71164,7 @@
       <c r="I71" s="100"/>
       <c r="J71" s="167"/>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="99" t="s">
         <v>60</v>
       </c>
@@ -71187,7 +71187,7 @@
       <c r="I72" s="97"/>
       <c r="J72" s="168"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="102" t="s">
         <v>139</v>
       </c>
@@ -71203,7 +71203,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="102" t="s">
         <v>101</v>
       </c>
@@ -71226,7 +71226,7 @@
       <c r="I74" s="100"/>
       <c r="J74" s="167"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="102" t="s">
         <v>96</v>
       </c>
@@ -71249,7 +71249,7 @@
       <c r="I75" s="100"/>
       <c r="J75" s="167"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="102" t="s">
         <v>138</v>
       </c>
@@ -71263,7 +71263,7 @@
       <c r="I76" s="100"/>
       <c r="J76" s="167"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="102" t="s">
         <v>54</v>
       </c>
@@ -71286,7 +71286,7 @@
       <c r="I77" s="100"/>
       <c r="J77" s="167"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="102" t="s">
         <v>24</v>
       </c>
@@ -71309,7 +71309,7 @@
       <c r="I78" s="100"/>
       <c r="J78" s="167"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="102" t="s">
         <v>5</v>
       </c>
@@ -71332,7 +71332,7 @@
       <c r="I79" s="100"/>
       <c r="J79" s="167"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="102" t="s">
         <v>137</v>
       </c>
@@ -71355,7 +71355,7 @@
       <c r="I80" s="100"/>
       <c r="J80" s="167"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="102" t="s">
         <v>136</v>
       </c>
@@ -71378,7 +71378,7 @@
       <c r="I81" s="100"/>
       <c r="J81" s="167"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="102" t="s">
         <v>82</v>
       </c>
@@ -71401,7 +71401,7 @@
       <c r="I82" s="100"/>
       <c r="J82" s="167"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="102" t="s">
         <v>75</v>
       </c>
@@ -71424,7 +71424,7 @@
       <c r="I83" s="100"/>
       <c r="J83" s="167"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="102" t="s">
         <v>135</v>
       </c>
@@ -71447,7 +71447,7 @@
       <c r="I84" s="100"/>
       <c r="J84" s="167"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="102" t="s">
         <v>78</v>
       </c>
@@ -71470,7 +71470,7 @@
       <c r="I85" s="100"/>
       <c r="J85" s="167"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="102" t="s">
         <v>63</v>
       </c>
@@ -71493,7 +71493,7 @@
       <c r="I86" s="100"/>
       <c r="J86" s="167"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="102" t="s">
         <v>90</v>
       </c>
@@ -71516,7 +71516,7 @@
       <c r="I87" s="100"/>
       <c r="J87" s="167"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="102" t="s">
         <v>134</v>
       </c>
@@ -71539,7 +71539,7 @@
       <c r="I88" s="100"/>
       <c r="J88" s="167"/>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="99" t="s">
         <v>60</v>
       </c>
@@ -71562,7 +71562,7 @@
       <c r="I89" s="97"/>
       <c r="J89" s="168"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="102" t="s">
         <v>139</v>
       </c>
@@ -71578,7 +71578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="102" t="s">
         <v>101</v>
       </c>
@@ -71601,7 +71601,7 @@
       <c r="I91" s="100"/>
       <c r="J91" s="167"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="102" t="s">
         <v>96</v>
       </c>
@@ -71624,7 +71624,7 @@
       <c r="I92" s="100"/>
       <c r="J92" s="167"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="102" t="s">
         <v>138</v>
       </c>
@@ -71638,7 +71638,7 @@
       <c r="I93" s="100"/>
       <c r="J93" s="167"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="102" t="s">
         <v>54</v>
       </c>
@@ -71661,7 +71661,7 @@
       <c r="I94" s="100"/>
       <c r="J94" s="167"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="102" t="s">
         <v>24</v>
       </c>
@@ -71684,7 +71684,7 @@
       <c r="I95" s="100"/>
       <c r="J95" s="167"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="102" t="s">
         <v>5</v>
       </c>
@@ -71707,7 +71707,7 @@
       <c r="I96" s="100"/>
       <c r="J96" s="167"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="102" t="s">
         <v>137</v>
       </c>
@@ -71730,7 +71730,7 @@
       <c r="I97" s="100"/>
       <c r="J97" s="167"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="102" t="s">
         <v>136</v>
       </c>
@@ -71753,7 +71753,7 @@
       <c r="I98" s="100"/>
       <c r="J98" s="167"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="102" t="s">
         <v>82</v>
       </c>
@@ -71776,7 +71776,7 @@
       <c r="I99" s="100"/>
       <c r="J99" s="167"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="102" t="s">
         <v>75</v>
       </c>
@@ -71799,7 +71799,7 @@
       <c r="I100" s="100"/>
       <c r="J100" s="167"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="102" t="s">
         <v>135</v>
       </c>
@@ -71822,7 +71822,7 @@
       <c r="I101" s="100"/>
       <c r="J101" s="167"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="102" t="s">
         <v>78</v>
       </c>
@@ -71845,7 +71845,7 @@
       <c r="I102" s="100"/>
       <c r="J102" s="167"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="102" t="s">
         <v>63</v>
       </c>
@@ -71868,7 +71868,7 @@
       <c r="I103" s="100"/>
       <c r="J103" s="167"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="102" t="s">
         <v>90</v>
       </c>
@@ -71891,7 +71891,7 @@
       <c r="I104" s="100"/>
       <c r="J104" s="167"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="102" t="s">
         <v>134</v>
       </c>
@@ -71914,7 +71914,7 @@
       <c r="I105" s="100"/>
       <c r="J105" s="167"/>
     </row>
-    <row r="106" spans="1:13" ht="15" thickBot="1">
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="99" t="s">
         <v>60</v>
       </c>
@@ -71937,7 +71937,7 @@
       <c r="I106" s="97"/>
       <c r="J106" s="168"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="102" t="s">
         <v>139</v>
       </c>
@@ -71955,7 +71955,7 @@
       <c r="L107" s="152"/>
       <c r="M107" s="152"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="102" t="s">
         <v>101</v>
       </c>
@@ -71980,7 +71980,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="102" t="s">
         <v>96</v>
       </c>
@@ -72005,7 +72005,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="102" t="s">
         <v>138</v>
       </c>
@@ -72021,7 +72021,7 @@
       <c r="L110" s="152"/>
       <c r="M110" s="100"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="102" t="s">
         <v>54</v>
       </c>
@@ -72046,7 +72046,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="102" t="s">
         <v>24</v>
       </c>
@@ -72071,7 +72071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="102" t="s">
         <v>5</v>
       </c>
@@ -72096,7 +72096,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="102" t="s">
         <v>137</v>
       </c>
@@ -72121,7 +72121,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="102" t="s">
         <v>136</v>
       </c>
@@ -72146,7 +72146,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="102" t="s">
         <v>82</v>
       </c>
@@ -72171,7 +72171,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="102" t="s">
         <v>75</v>
       </c>
@@ -72196,7 +72196,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="102" t="s">
         <v>135</v>
       </c>
@@ -72221,7 +72221,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="102" t="s">
         <v>78</v>
       </c>
@@ -72246,7 +72246,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="102" t="s">
         <v>63</v>
       </c>
@@ -72271,7 +72271,7 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="102" t="s">
         <v>90</v>
       </c>
@@ -72296,7 +72296,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="102" t="s">
         <v>134</v>
       </c>
@@ -72321,7 +72321,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" thickBot="1">
+    <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="99" t="s">
         <v>60</v>
       </c>
@@ -72378,25 +72378,25 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="108" customWidth="1"/>
-    <col min="3" max="9" width="8.83203125" style="108"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="108" customWidth="1"/>
+    <col min="3" max="9" width="8.85546875" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1"/>
-    <row r="4" spans="1:11" s="94" customFormat="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="178" t="s">
         <v>150</v>
       </c>
@@ -72416,7 +72416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="94" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="1:11" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="179"/>
       <c r="B5" s="122" t="s">
         <v>156</v>
@@ -72442,7 +72442,7 @@
       <c r="I5" s="179"/>
       <c r="J5" s="179"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
         <v>5</v>
       </c>
@@ -72476,7 +72476,7 @@
         <v>95.842857142857127</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
         <v>6</v>
       </c>
@@ -72510,7 +72510,7 @@
         <v>95.98571428571428</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
@@ -72544,7 +72544,7 @@
         <v>71.685714285714283</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
@@ -72578,7 +72578,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="112" t="s">
         <v>9</v>
       </c>
@@ -72612,7 +72612,7 @@
         <v>125.12857142857143</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="112" t="s">
         <v>10</v>
       </c>
@@ -72649,7 +72649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="112" t="s">
         <v>11</v>
       </c>
@@ -72683,7 +72683,7 @@
         <v>88.428571428571416</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="112" t="s">
         <v>12</v>
       </c>
@@ -72717,7 +72717,7 @@
         <v>100.74285714285713</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="112" t="s">
         <v>13</v>
       </c>
@@ -72751,7 +72751,7 @@
         <v>89.542857142857144</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="112" t="s">
         <v>14</v>
       </c>
@@ -72785,7 +72785,7 @@
         <v>104.81428571428573</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="112" t="s">
         <v>15</v>
       </c>
@@ -72819,7 +72819,7 @@
         <v>84.59999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
         <v>16</v>
       </c>
@@ -72853,7 +72853,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
         <v>17</v>
       </c>
@@ -72887,7 +72887,7 @@
         <v>110.02857142857142</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="112" t="s">
         <v>18</v>
       </c>
@@ -72921,7 +72921,7 @@
         <v>133.6142857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="112" t="s">
         <v>19</v>
       </c>
@@ -72955,7 +72955,7 @@
         <v>95.928571428571402</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="112" t="s">
         <v>20</v>
       </c>
@@ -72989,7 +72989,7 @@
         <v>97.857142857142847</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="112" t="s">
         <v>21</v>
       </c>
@@ -73023,7 +73023,7 @@
         <v>90.928571428571416</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="112" t="s">
         <v>22</v>
       </c>
@@ -73057,7 +73057,7 @@
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="112" t="s">
         <v>23</v>
       </c>
@@ -73091,7 +73091,7 @@
         <v>91.185714285714297</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="112" t="s">
         <v>24</v>
       </c>
@@ -73125,7 +73125,7 @@
         <v>85.757142857142853</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="112" t="s">
         <v>25</v>
       </c>
@@ -73159,7 +73159,7 @@
         <v>81.657142857142858</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
         <v>26</v>
       </c>
@@ -73193,7 +73193,7 @@
         <v>139.21428571428572</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="112" t="s">
         <v>27</v>
       </c>
@@ -73227,7 +73227,7 @@
         <v>95.98571428571428</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="112" t="s">
         <v>28</v>
       </c>
@@ -73261,7 +73261,7 @@
         <v>114.14285714285714</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="112" t="s">
         <v>29</v>
       </c>
@@ -73295,7 +73295,7 @@
         <v>102.04285714285713</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="112" t="s">
         <v>30</v>
       </c>
@@ -73329,7 +73329,7 @@
         <v>96.228571428571428</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="112" t="s">
         <v>31</v>
       </c>
@@ -73363,7 +73363,7 @@
         <v>119.68571428571428</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="112" t="s">
         <v>32</v>
       </c>
@@ -73397,7 +73397,7 @@
         <v>90.357142857142861</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="112" t="s">
         <v>33</v>
       </c>
@@ -73431,7 +73431,7 @@
         <v>129.82857142857139</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="112" t="s">
         <v>34</v>
       </c>
@@ -73465,7 +73465,7 @@
         <v>104.58571428571429</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="112" t="s">
         <v>35</v>
       </c>
@@ -73499,7 +73499,7 @@
         <v>112.88571428571427</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="112" t="s">
         <v>154</v>
       </c>
@@ -73533,7 +73533,7 @@
         <v>142.27142857142857</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="112" t="s">
         <v>36</v>
       </c>
@@ -73567,7 +73567,7 @@
         <v>85.585714285714275</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="112" t="s">
         <v>37</v>
       </c>
@@ -73601,7 +73601,7 @@
         <v>98.828571428571436</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="112" t="s">
         <v>38</v>
       </c>
@@ -73635,7 +73635,7 @@
         <v>113.92857142857144</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="112" t="s">
         <v>39</v>
       </c>
@@ -73669,7 +73669,7 @@
         <v>79.48571428571428</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="112" t="s">
         <v>40</v>
       </c>
@@ -73703,7 +73703,7 @@
         <v>107.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="112" t="s">
         <v>41</v>
       </c>
@@ -73737,7 +73737,7 @@
         <v>105.84285714285713</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="112" t="s">
         <v>42</v>
       </c>
@@ -73771,7 +73771,7 @@
         <v>113.37142857142854</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="112" t="s">
         <v>43</v>
       </c>
@@ -73805,7 +73805,7 @@
         <v>105.71428571428569</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="112" t="s">
         <v>44</v>
       </c>
@@ -73839,7 +73839,7 @@
         <v>97.014285714285705</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="112" t="s">
         <v>45</v>
       </c>
@@ -73873,7 +73873,7 @@
         <v>94.185714285714283</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="112" t="s">
         <v>46</v>
       </c>
@@ -73907,7 +73907,7 @@
         <v>112.24285714285713</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="112" t="s">
         <v>47</v>
       </c>
@@ -73941,7 +73941,7 @@
         <v>100.25714285714287</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="112" t="s">
         <v>48</v>
       </c>
@@ -73975,7 +73975,7 @@
         <v>107.79999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="112" t="s">
         <v>49</v>
       </c>
@@ -74009,7 +74009,7 @@
         <v>117.75714285714282</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="112" t="s">
         <v>50</v>
       </c>
@@ -74043,7 +74043,7 @@
         <v>124.81428571428572</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="112" t="s">
         <v>51</v>
       </c>
@@ -74077,7 +74077,7 @@
         <v>111.20000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="112" t="s">
         <v>52</v>
       </c>
@@ -74111,7 +74111,7 @@
         <v>111.12857142857142</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="112" t="s">
         <v>53</v>
       </c>
@@ -74145,7 +74145,7 @@
         <v>112.54285714285714</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="112" t="s">
         <v>54</v>
       </c>
@@ -74179,7 +74179,7 @@
         <v>120.61428571428571</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="112" t="s">
         <v>55</v>
       </c>
@@ -74213,7 +74213,7 @@
         <v>104.02857142857142</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="112" t="s">
         <v>56</v>
       </c>
@@ -74247,7 +74247,7 @@
         <v>106.67142857142859</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="112" t="s">
         <v>57</v>
       </c>
@@ -74281,7 +74281,7 @@
         <v>101.87142857142857</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="112" t="s">
         <v>58</v>
       </c>
@@ -74315,7 +74315,7 @@
         <v>138.98333333333332</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="112" t="s">
         <v>59</v>
       </c>
@@ -74349,7 +74349,7 @@
         <v>156.05714285714282</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="112" t="s">
         <v>60</v>
       </c>
@@ -74383,7 +74383,7 @@
         <v>89.171428571428578</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="112" t="s">
         <v>61</v>
       </c>
@@ -74417,7 +74417,7 @@
         <v>117.1142857142857</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="112" t="s">
         <v>62</v>
       </c>
@@ -74451,7 +74451,7 @@
         <v>98.714285714285708</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="112" t="s">
         <v>63</v>
       </c>
@@ -74485,7 +74485,7 @@
         <v>116.12857142857142</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="112" t="s">
         <v>64</v>
       </c>
@@ -74519,7 +74519,7 @@
         <v>61.728571428571421</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="112" t="s">
         <v>65</v>
       </c>
@@ -74553,7 +74553,7 @@
         <v>101.65714285714287</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="112" t="s">
         <v>66</v>
       </c>
@@ -74587,7 +74587,7 @@
         <v>79.328571428571422</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="112" t="s">
         <v>67</v>
       </c>
@@ -74621,7 +74621,7 @@
         <v>32.199999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="112" t="s">
         <v>68</v>
       </c>
@@ -74655,7 +74655,7 @@
         <v>115.37142857142857</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="112" t="s">
         <v>69</v>
       </c>
@@ -74689,7 +74689,7 @@
         <v>110.68571428571428</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="112" t="s">
         <v>70</v>
       </c>
@@ -74723,7 +74723,7 @@
         <v>86.228571428571428</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="112" t="s">
         <v>71</v>
       </c>
@@ -74757,7 +74757,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="112" t="s">
         <v>72</v>
       </c>
@@ -74791,7 +74791,7 @@
         <v>96.571428571428555</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="112" t="s">
         <v>73</v>
       </c>
@@ -74825,7 +74825,7 @@
         <v>90.600000000000009</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="112" t="s">
         <v>74</v>
       </c>
@@ -74859,7 +74859,7 @@
         <v>58.028571428571432</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="112" t="s">
         <v>75</v>
       </c>
@@ -74893,7 +74893,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="112" t="s">
         <v>76</v>
       </c>
@@ -74927,7 +74927,7 @@
         <v>111.34285714285717</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="112" t="s">
         <v>77</v>
       </c>
@@ -74961,7 +74961,7 @@
         <v>97.228571428571442</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="112" t="s">
         <v>78</v>
       </c>
@@ -74995,7 +74995,7 @@
         <v>107.34285714285714</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="112" t="s">
         <v>79</v>
       </c>
@@ -75029,7 +75029,7 @@
         <v>167.12857142857143</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="112" t="s">
         <v>80</v>
       </c>
@@ -75063,7 +75063,7 @@
         <v>120.41428571428571</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="112" t="s">
         <v>81</v>
       </c>
@@ -75097,7 +75097,7 @@
         <v>105.65714285714284</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="112" t="s">
         <v>82</v>
       </c>
@@ -75131,7 +75131,7 @@
         <v>126.29999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="112" t="s">
         <v>83</v>
       </c>
@@ -75165,7 +75165,7 @@
         <v>97.90000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="112" t="s">
         <v>84</v>
       </c>
@@ -75199,7 +75199,7 @@
         <v>98.1142857142857</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="112" t="s">
         <v>85</v>
       </c>
@@ -75233,7 +75233,7 @@
         <v>100.02857142857142</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="112" t="s">
         <v>86</v>
       </c>
@@ -75267,7 +75267,7 @@
         <v>93.857142857142847</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="112" t="s">
         <v>87</v>
       </c>
@@ -75301,7 +75301,7 @@
         <v>86.571428571428584</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="112" t="s">
         <v>88</v>
       </c>
@@ -75335,7 +75335,7 @@
         <v>70.828571428571422</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="112" t="s">
         <v>89</v>
       </c>
@@ -75369,7 +75369,7 @@
         <v>84.628571428571419</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="112" t="s">
         <v>90</v>
       </c>
@@ -75403,7 +75403,7 @@
         <v>119.31428571428573</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="112" t="s">
         <v>91</v>
       </c>
@@ -75437,7 +75437,7 @@
         <v>90.085714285714303</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="112" t="s">
         <v>92</v>
       </c>
@@ -75471,7 +75471,7 @@
         <v>99.857142857142861</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="112" t="s">
         <v>93</v>
       </c>
@@ -75505,7 +75505,7 @@
         <v>99.071428571428555</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="112" t="s">
         <v>94</v>
       </c>
@@ -75539,7 +75539,7 @@
         <v>73.585714285714289</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="112" t="s">
         <v>95</v>
       </c>
@@ -75573,7 +75573,7 @@
         <v>153.10000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="112" t="s">
         <v>96</v>
       </c>
@@ -75607,7 +75607,7 @@
         <v>95.371428571428567</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="112" t="s">
         <v>97</v>
       </c>
@@ -75641,7 +75641,7 @@
         <v>86.114285714285728</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="112" t="s">
         <v>98</v>
       </c>
@@ -75675,7 +75675,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="112" t="s">
         <v>99</v>
       </c>
@@ -75709,7 +75709,7 @@
         <v>111.81428571428573</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="112" t="s">
         <v>100</v>
       </c>
@@ -75743,7 +75743,7 @@
         <v>108.04285714285713</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="112" t="s">
         <v>101</v>
       </c>
@@ -75777,7 +75777,7 @@
         <v>156.62857142857141</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="112" t="s">
         <v>102</v>
       </c>
@@ -75811,7 +75811,7 @@
         <v>105.15714285714286</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="112" t="s">
         <v>103</v>
       </c>
@@ -75845,7 +75845,7 @@
         <v>89.871428571428567</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="112" t="s">
         <v>104</v>
       </c>
@@ -75879,7 +75879,7 @@
         <v>102.72857142857141</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="112" t="s">
         <v>105</v>
       </c>
@@ -75913,7 +75913,7 @@
         <v>120.42857142857144</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="112" t="s">
         <v>106</v>
       </c>
@@ -75947,7 +75947,7 @@
         <v>100.05714285714286</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="112" t="s">
         <v>107</v>
       </c>
@@ -75981,7 +75981,7 @@
         <v>107.54285714285712</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="112" t="s">
         <v>108</v>
       </c>
@@ -76015,7 +76015,7 @@
         <v>97.142857142857153</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="112" t="s">
         <v>109</v>
       </c>
@@ -76049,7 +76049,7 @@
         <v>104.90000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="112" t="s">
         <v>110</v>
       </c>
@@ -76083,7 +76083,7 @@
         <v>84.271428571428558</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="112" t="s">
         <v>111</v>
       </c>
@@ -76117,7 +76117,7 @@
         <v>148.14285714285711</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="112" t="s">
         <v>112</v>
       </c>
@@ -76151,7 +76151,7 @@
         <v>122.71428571428571</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="112" t="s">
         <v>113</v>
       </c>
@@ -76185,7 +76185,7 @@
         <v>111.24285714285713</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="112" t="s">
         <v>114</v>
       </c>
@@ -76219,7 +76219,7 @@
         <v>92.714285714285722</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="112" t="s">
         <v>115</v>
       </c>
@@ -76253,7 +76253,7 @@
         <v>108.29999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="112" t="s">
         <v>116</v>
       </c>
@@ -76287,7 +76287,7 @@
         <v>100.77142857142856</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="112" t="s">
         <v>117</v>
       </c>
@@ -76321,7 +76321,7 @@
         <v>108.41428571428571</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1">
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="113" t="s">
         <v>118</v>
       </c>
